--- a/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.742352399762298</v>
+        <v>4.742352399762302</v>
       </c>
       <c r="D2">
-        <v>6.991626790196323</v>
+        <v>6.991626790196283</v>
       </c>
       <c r="E2">
-        <v>46.98547545156551</v>
+        <v>46.98547545156546</v>
       </c>
       <c r="F2">
-        <v>39.20900131358908</v>
+        <v>39.20900131358871</v>
       </c>
       <c r="G2">
-        <v>32.66276132628093</v>
+        <v>32.66276132628062</v>
       </c>
       <c r="H2">
-        <v>30.90333071688029</v>
+        <v>30.90333071688</v>
       </c>
       <c r="I2">
-        <v>33.69462377057539</v>
+        <v>33.69462377057533</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>108.0644899300194</v>
+        <v>108.0644899300193</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.031114382023635</v>
+        <v>4.031114382023864</v>
       </c>
       <c r="D3">
-        <v>6.385925355314521</v>
+        <v>6.385925355314622</v>
       </c>
       <c r="E3">
-        <v>42.2451080909192</v>
+        <v>42.24510809091915</v>
       </c>
       <c r="F3">
-        <v>32.83405089289552</v>
+        <v>32.83405089289577</v>
       </c>
       <c r="G3">
-        <v>27.66552160145738</v>
+        <v>27.66552160145759</v>
       </c>
       <c r="H3">
-        <v>26.35326369419808</v>
+        <v>26.35326369419824</v>
       </c>
       <c r="I3">
-        <v>30.12512161280667</v>
+        <v>30.12512161280659</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.653453303394114</v>
+        <v>3.653453303394122</v>
       </c>
       <c r="D4">
-        <v>6.024109077420481</v>
+        <v>6.024109077420473</v>
       </c>
       <c r="E4">
-        <v>39.54548462509172</v>
+        <v>39.54548462509181</v>
       </c>
       <c r="F4">
-        <v>29.4215467394565</v>
+        <v>29.42154673945656</v>
       </c>
       <c r="G4">
-        <v>24.96115792255161</v>
+        <v>24.96115792255166</v>
       </c>
       <c r="H4">
-        <v>23.87777117946693</v>
+        <v>23.877771179467</v>
       </c>
       <c r="I4">
-        <v>28.11810406520246</v>
+        <v>28.11810406520253</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>91.7742322361817</v>
+        <v>91.77423223618175</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.508305506390845</v>
+        <v>3.508305506391098</v>
       </c>
       <c r="D5">
-        <v>5.877108449445242</v>
+        <v>5.877108449445162</v>
       </c>
       <c r="E5">
-        <v>38.46857300898913</v>
+        <v>38.46857300898917</v>
       </c>
       <c r="F5">
-        <v>28.11082836836489</v>
+        <v>28.11082836836488</v>
       </c>
       <c r="G5">
-        <v>23.91513803146209</v>
+        <v>23.91513803146207</v>
       </c>
       <c r="H5">
-        <v>22.91734073883992</v>
+        <v>22.91734073883988</v>
       </c>
       <c r="I5">
-        <v>27.3223538133157</v>
+        <v>27.32235381331574</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>89.36959266386228</v>
+        <v>89.36959266386229</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.484617374844733</v>
+        <v>3.484617374844852</v>
       </c>
       <c r="D6">
-        <v>5.852685036840652</v>
+        <v>5.85268503684066</v>
       </c>
       <c r="E6">
-        <v>38.29059691816229</v>
+        <v>38.29059691816232</v>
       </c>
       <c r="F6">
-        <v>27.89715904145081</v>
+        <v>27.89715904145098</v>
       </c>
       <c r="G6">
-        <v>23.74416949495983</v>
+        <v>23.74416949495998</v>
       </c>
       <c r="H6">
-        <v>22.76018966101811</v>
+        <v>22.76018966101821</v>
       </c>
       <c r="I6">
-        <v>27.19110168992057</v>
+        <v>27.19110168992055</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>88.97124542988463</v>
+        <v>88.97124542988458</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.651465849698665</v>
+        <v>3.651465849698428</v>
       </c>
       <c r="D7">
-        <v>6.022126726189227</v>
+        <v>6.022126726189057</v>
       </c>
       <c r="E7">
-        <v>39.53089371981399</v>
+        <v>39.53089371981387</v>
       </c>
       <c r="F7">
-        <v>29.40358728914984</v>
+        <v>29.40358728914916</v>
       </c>
       <c r="G7">
-        <v>24.94685577159161</v>
+        <v>24.94685577159105</v>
       </c>
       <c r="H7">
-        <v>23.86465107687776</v>
+        <v>23.86465107687725</v>
       </c>
       <c r="I7">
-        <v>28.10730446372762</v>
+        <v>28.10730446372751</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>91.74171935382766</v>
+        <v>91.74171935382742</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D8">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E8">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F8">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G8">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H8">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I8">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D9">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E9">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F9">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G9">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H9">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I9">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D10">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E10">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F10">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G10">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H10">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I10">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D11">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E11">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F11">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G11">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H11">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I11">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D12">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E12">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F12">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G12">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H12">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I12">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D13">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E13">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F13">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G13">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H13">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I13">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D14">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E14">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F14">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G14">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H14">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I14">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D15">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E15">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F15">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G15">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H15">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I15">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D16">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E16">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F16">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G16">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H16">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I16">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D17">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E17">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F17">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G17">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H17">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I17">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D18">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E18">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F18">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G18">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H18">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I18">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D19">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E19">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F19">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G19">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H19">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I19">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D20">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E20">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F20">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G20">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H20">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I20">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D21">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E21">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F21">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G21">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H21">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I21">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D22">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E22">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F22">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G22">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H22">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I22">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D23">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E23">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F23">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G23">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H23">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I23">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D24">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E24">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F24">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G24">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H24">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I24">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.479636565010635</v>
+        <v>4.479636565010541</v>
       </c>
       <c r="D25">
-        <v>6.778930813551535</v>
+        <v>6.778930813551494</v>
       </c>
       <c r="E25">
-        <v>45.28141588193463</v>
+        <v>45.28141588193468</v>
       </c>
       <c r="F25">
-        <v>36.86669502866231</v>
+        <v>36.86669502866182</v>
       </c>
       <c r="G25">
-        <v>30.83360443869337</v>
+        <v>30.83360443869301</v>
       </c>
       <c r="H25">
-        <v>29.24117166327338</v>
+        <v>29.24117166327306</v>
       </c>
       <c r="I25">
-        <v>32.40454555963164</v>
+        <v>32.40454555963165</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>104.3904606719876</v>
+        <v>104.3904606719877</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
@@ -415,25 +415,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.742352399762302</v>
+        <v>4.742352399762298</v>
       </c>
       <c r="D2">
-        <v>6.991626790196283</v>
+        <v>6.991626790196323</v>
       </c>
       <c r="E2">
-        <v>46.98547545156546</v>
+        <v>46.98547545156551</v>
       </c>
       <c r="F2">
-        <v>39.20900131358871</v>
+        <v>39.20900131358908</v>
       </c>
       <c r="G2">
-        <v>32.66276132628062</v>
+        <v>32.66276132628093</v>
       </c>
       <c r="H2">
-        <v>30.90333071688</v>
+        <v>30.90333071688029</v>
       </c>
       <c r="I2">
-        <v>33.69462377057533</v>
+        <v>33.69462377057539</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>108.0644899300193</v>
+        <v>108.0644899300194</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -453,25 +453,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.031114382023864</v>
+        <v>4.031114382023635</v>
       </c>
       <c r="D3">
-        <v>6.385925355314622</v>
+        <v>6.385925355314521</v>
       </c>
       <c r="E3">
-        <v>42.24510809091915</v>
+        <v>42.2451080909192</v>
       </c>
       <c r="F3">
-        <v>32.83405089289577</v>
+        <v>32.83405089289552</v>
       </c>
       <c r="G3">
-        <v>27.66552160145759</v>
+        <v>27.66552160145738</v>
       </c>
       <c r="H3">
-        <v>26.35326369419824</v>
+        <v>26.35326369419808</v>
       </c>
       <c r="I3">
-        <v>30.12512161280659</v>
+        <v>30.12512161280667</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.653453303394122</v>
+        <v>3.653453303394114</v>
       </c>
       <c r="D4">
-        <v>6.024109077420473</v>
+        <v>6.024109077420481</v>
       </c>
       <c r="E4">
-        <v>39.54548462509181</v>
+        <v>39.54548462509172</v>
       </c>
       <c r="F4">
-        <v>29.42154673945656</v>
+        <v>29.4215467394565</v>
       </c>
       <c r="G4">
-        <v>24.96115792255166</v>
+        <v>24.96115792255161</v>
       </c>
       <c r="H4">
-        <v>23.877771179467</v>
+        <v>23.87777117946693</v>
       </c>
       <c r="I4">
-        <v>28.11810406520253</v>
+        <v>28.11810406520246</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>91.77423223618175</v>
+        <v>91.7742322361817</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,25 +529,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.508305506391098</v>
+        <v>3.508305506390845</v>
       </c>
       <c r="D5">
-        <v>5.877108449445162</v>
+        <v>5.877108449445242</v>
       </c>
       <c r="E5">
-        <v>38.46857300898917</v>
+        <v>38.46857300898913</v>
       </c>
       <c r="F5">
-        <v>28.11082836836488</v>
+        <v>28.11082836836489</v>
       </c>
       <c r="G5">
-        <v>23.91513803146207</v>
+        <v>23.91513803146209</v>
       </c>
       <c r="H5">
-        <v>22.91734073883988</v>
+        <v>22.91734073883992</v>
       </c>
       <c r="I5">
-        <v>27.32235381331574</v>
+        <v>27.3223538133157</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>89.36959266386229</v>
+        <v>89.36959266386228</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,25 +567,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.484617374844852</v>
+        <v>3.484617374844733</v>
       </c>
       <c r="D6">
-        <v>5.85268503684066</v>
+        <v>5.852685036840652</v>
       </c>
       <c r="E6">
-        <v>38.29059691816232</v>
+        <v>38.29059691816229</v>
       </c>
       <c r="F6">
-        <v>27.89715904145098</v>
+        <v>27.89715904145081</v>
       </c>
       <c r="G6">
-        <v>23.74416949495998</v>
+        <v>23.74416949495983</v>
       </c>
       <c r="H6">
-        <v>22.76018966101821</v>
+        <v>22.76018966101811</v>
       </c>
       <c r="I6">
-        <v>27.19110168992055</v>
+        <v>27.19110168992057</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>88.97124542988458</v>
+        <v>88.97124542988463</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,25 +605,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.651465849698428</v>
+        <v>3.651465849698665</v>
       </c>
       <c r="D7">
-        <v>6.022126726189057</v>
+        <v>6.022126726189227</v>
       </c>
       <c r="E7">
-        <v>39.53089371981387</v>
+        <v>39.53089371981399</v>
       </c>
       <c r="F7">
-        <v>29.40358728914916</v>
+        <v>29.40358728914984</v>
       </c>
       <c r="G7">
-        <v>24.94685577159105</v>
+        <v>24.94685577159161</v>
       </c>
       <c r="H7">
-        <v>23.86465107687725</v>
+        <v>23.86465107687776</v>
       </c>
       <c r="I7">
-        <v>28.10730446372751</v>
+        <v>28.10730446372762</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>91.74171935382742</v>
+        <v>91.74171935382766</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,25 +643,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D8">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E8">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F8">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G8">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H8">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I8">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D9">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E9">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F9">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G9">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H9">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I9">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,25 +719,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D10">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E10">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F10">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G10">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H10">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I10">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -757,25 +757,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D11">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E11">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F11">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G11">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H11">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I11">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,25 +795,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D12">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E12">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F12">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G12">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H12">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I12">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,25 +833,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D13">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E13">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F13">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G13">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H13">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I13">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -871,25 +871,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D14">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E14">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F14">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G14">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H14">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I14">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,25 +909,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D15">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E15">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F15">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G15">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H15">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I15">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,25 +947,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D16">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E16">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F16">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G16">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H16">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I16">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,25 +985,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D17">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E17">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F17">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G17">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H17">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I17">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1023,25 +1023,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D18">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E18">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F18">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G18">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H18">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I18">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,25 +1061,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D19">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E19">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F19">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G19">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H19">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I19">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D20">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E20">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F20">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G20">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H20">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I20">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,25 +1137,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D21">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E21">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F21">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G21">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H21">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I21">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D22">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E22">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F22">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G22">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H22">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I22">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,25 +1213,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D23">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E23">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F23">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G23">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H23">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I23">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,25 +1251,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D24">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E24">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F24">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G24">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H24">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I24">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1289,25 +1289,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.479636565010541</v>
+        <v>4.479636565010635</v>
       </c>
       <c r="D25">
-        <v>6.778930813551494</v>
+        <v>6.778930813551535</v>
       </c>
       <c r="E25">
-        <v>45.28141588193468</v>
+        <v>45.28141588193463</v>
       </c>
       <c r="F25">
-        <v>36.86669502866182</v>
+        <v>36.86669502866231</v>
       </c>
       <c r="G25">
-        <v>30.83360443869301</v>
+        <v>30.83360443869337</v>
       </c>
       <c r="H25">
-        <v>29.24117166327306</v>
+        <v>29.24117166327338</v>
       </c>
       <c r="I25">
-        <v>32.40454555963165</v>
+        <v>32.40454555963164</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>104.3904606719877</v>
+        <v>104.3904606719876</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.742352399762298</v>
+        <v>4.739229942570514</v>
       </c>
       <c r="D2">
-        <v>6.991626790196323</v>
+        <v>6.984133269335493</v>
       </c>
       <c r="E2">
-        <v>46.98547545156551</v>
+        <v>46.98170947781809</v>
       </c>
       <c r="F2">
-        <v>39.20900131358908</v>
+        <v>39.17117173579269</v>
       </c>
       <c r="G2">
-        <v>32.66276132628093</v>
+        <v>32.70864592128226</v>
       </c>
       <c r="H2">
-        <v>30.90333071688029</v>
+        <v>31.54634597560079</v>
       </c>
       <c r="I2">
-        <v>33.69462377057539</v>
+        <v>30.87522582647793</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>33.69234302412097</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>108.0644899300194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>108.0539687821225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.031114382023635</v>
+        <v>4.029357239711322</v>
       </c>
       <c r="D3">
-        <v>6.385925355314521</v>
+        <v>6.379621274318373</v>
       </c>
       <c r="E3">
-        <v>42.2451080909192</v>
+        <v>42.24289314042846</v>
       </c>
       <c r="F3">
-        <v>32.83405089289552</v>
+        <v>32.80466372566708</v>
       </c>
       <c r="G3">
-        <v>27.66552160145738</v>
+        <v>27.70626665866538</v>
       </c>
       <c r="H3">
-        <v>26.35326369419808</v>
+        <v>26.6384290108218</v>
       </c>
       <c r="I3">
-        <v>30.12512161280667</v>
+        <v>26.33126380877755</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>30.12437366404095</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>97.75543315507366</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>97.7492874020883</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.653453303394114</v>
+        <v>3.652328192931895</v>
       </c>
       <c r="D4">
-        <v>6.024109077420481</v>
+        <v>6.018425253296856</v>
       </c>
       <c r="E4">
-        <v>39.54548462509172</v>
+        <v>39.54376185366352</v>
       </c>
       <c r="F4">
-        <v>29.4215467394565</v>
+        <v>29.39599240516156</v>
       </c>
       <c r="G4">
-        <v>24.96115792255161</v>
+        <v>24.9986030646301</v>
       </c>
       <c r="H4">
-        <v>23.87777117946693</v>
+        <v>24.00376366983951</v>
       </c>
       <c r="I4">
-        <v>28.11810406520246</v>
+        <v>23.85857261356757</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>28.11786119788459</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>91.7742322361817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>91.76970857118324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.508305506390845</v>
+        <v>3.507409014632811</v>
       </c>
       <c r="D5">
-        <v>5.877108449445242</v>
+        <v>5.871662559837009</v>
       </c>
       <c r="E5">
-        <v>38.46857300898913</v>
+        <v>38.46699873393</v>
       </c>
       <c r="F5">
-        <v>28.11082836836489</v>
+        <v>28.08665390838471</v>
       </c>
       <c r="G5">
-        <v>23.91513803146209</v>
+        <v>23.95123968885355</v>
       </c>
       <c r="H5">
-        <v>22.91734073883992</v>
+        <v>22.99042441507533</v>
       </c>
       <c r="I5">
-        <v>27.3223538133157</v>
+        <v>22.89915521093887</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>27.32226429683094</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>89.36959266386228</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>89.36559810760662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.484617374844733</v>
+        <v>3.483757474712054</v>
       </c>
       <c r="D6">
-        <v>5.852685036840652</v>
+        <v>5.847277989974368</v>
       </c>
       <c r="E6">
-        <v>38.29059691816229</v>
+        <v>38.28904507645188</v>
       </c>
       <c r="F6">
-        <v>27.89715904145081</v>
+        <v>27.87320525905937</v>
       </c>
       <c r="G6">
-        <v>23.74416949495983</v>
+        <v>23.78004855886225</v>
       </c>
       <c r="H6">
-        <v>22.76018966101811</v>
+        <v>22.82515778550177</v>
       </c>
       <c r="I6">
-        <v>27.19110168992057</v>
+        <v>22.74216636600373</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>27.19103531821368</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>88.97124542988463</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>88.96733283264389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.651465849698665</v>
+        <v>3.6503439213416</v>
       </c>
       <c r="D7">
-        <v>6.022126726189227</v>
+        <v>6.016446159945601</v>
       </c>
       <c r="E7">
-        <v>39.53089371981399</v>
+        <v>39.52917311660421</v>
       </c>
       <c r="F7">
-        <v>29.40358728914984</v>
+        <v>29.37805217769541</v>
       </c>
       <c r="G7">
-        <v>24.94685577159161</v>
+        <v>24.98428276876471</v>
       </c>
       <c r="H7">
-        <v>23.86465107687776</v>
+        <v>23.98988418702679</v>
       </c>
       <c r="I7">
-        <v>28.10730446372762</v>
+        <v>23.84546660704255</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>28.10706383532273</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>91.74171935382766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>91.73720325754631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D8">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E8">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F8">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G8">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H8">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I8">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D9">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E9">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F9">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G9">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H9">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I9">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D10">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E10">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F10">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G10">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H10">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I10">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D11">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E11">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F11">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G11">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H11">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I11">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D12">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E12">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F12">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G12">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H12">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I12">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D13">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E13">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F13">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G13">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H13">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I13">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D14">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E14">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F14">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G14">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H14">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I14">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D15">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E15">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F15">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G15">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H15">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I15">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D16">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E16">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F16">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G16">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H16">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I16">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D17">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E17">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F17">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G17">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H17">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I17">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D18">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E18">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F18">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G18">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H18">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I18">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D19">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E19">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F19">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G19">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H19">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I19">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D20">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E20">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F20">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G20">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H20">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I20">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D21">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E21">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F21">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G21">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H21">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I21">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D22">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E22">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F22">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G22">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H22">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I22">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D23">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E23">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F23">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G23">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H23">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I23">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D24">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E24">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F24">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G24">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H24">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I24">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>104.3904606719876</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>104.3818037156802</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.479636565010635</v>
+        <v>4.477049366279123</v>
       </c>
       <c r="D25">
-        <v>6.778930813551535</v>
+        <v>6.771881781965103</v>
       </c>
       <c r="E25">
-        <v>45.28141588193463</v>
+        <v>45.27834516843645</v>
       </c>
       <c r="F25">
-        <v>36.86669502866231</v>
+        <v>36.83220752113517</v>
       </c>
       <c r="G25">
-        <v>30.83360443869337</v>
+        <v>30.87779019649422</v>
       </c>
       <c r="H25">
-        <v>29.24117166327338</v>
+        <v>29.7452298092484</v>
       </c>
       <c r="I25">
-        <v>32.40454555963164</v>
+        <v>29.21547282146941</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>32.40294130611187</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>104.3904606719876</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>104.3818037156802</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.739229942570514</v>
+        <v>10.23922081166069</v>
       </c>
       <c r="D2">
-        <v>6.984133269335493</v>
+        <v>4.723044745735208</v>
       </c>
       <c r="E2">
-        <v>46.98170947781809</v>
+        <v>8.742816303679426</v>
       </c>
       <c r="F2">
-        <v>39.17117173579269</v>
+        <v>39.5825133202869</v>
       </c>
       <c r="G2">
-        <v>32.70864592128226</v>
+        <v>2.027120381209643</v>
       </c>
       <c r="H2">
-        <v>31.54634597560079</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>30.87522582647793</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>33.69234302412097</v>
+        <v>6.366166535800148</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>97.81350112454956</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.28840372572187</v>
       </c>
       <c r="M2">
-        <v>108.0539687821225</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.72110038223937</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.029357239711322</v>
+        <v>9.791403745703761</v>
       </c>
       <c r="D3">
-        <v>6.379621274318373</v>
+        <v>4.276177207025983</v>
       </c>
       <c r="E3">
-        <v>42.24289314042846</v>
+        <v>8.544584764555445</v>
       </c>
       <c r="F3">
-        <v>32.80466372566708</v>
+        <v>37.91882813901567</v>
       </c>
       <c r="G3">
-        <v>27.70626665866538</v>
+        <v>2.060380026904348</v>
       </c>
       <c r="H3">
-        <v>26.6384290108218</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>26.33126380877755</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>30.12437366404095</v>
+        <v>6.456783401938095</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>90.6967944209926</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.284755310913341</v>
       </c>
       <c r="M3">
-        <v>97.7492874020883</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>27.64322890159081</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.652328192931895</v>
+        <v>9.525681940976263</v>
       </c>
       <c r="D4">
-        <v>6.018425253296856</v>
+        <v>4.009920670128809</v>
       </c>
       <c r="E4">
-        <v>39.54376185366352</v>
+        <v>8.428828802042208</v>
       </c>
       <c r="F4">
-        <v>29.39599240516156</v>
+        <v>37.18553754275747</v>
       </c>
       <c r="G4">
-        <v>24.9986030646301</v>
+        <v>2.080278201571644</v>
       </c>
       <c r="H4">
-        <v>24.00376366983951</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>23.85857261356757</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>28.11786119788459</v>
+        <v>6.522824691891564</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>86.21088606587145</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.2835193501293</v>
       </c>
       <c r="M4">
-        <v>91.76970857118324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>27.22882948321867</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.507409014632811</v>
+        <v>9.419356554653637</v>
       </c>
       <c r="D5">
-        <v>5.871662559837009</v>
+        <v>3.902699235778134</v>
       </c>
       <c r="E5">
-        <v>38.46699873393</v>
+        <v>8.38296868085142</v>
       </c>
       <c r="F5">
-        <v>28.08665390838471</v>
+        <v>36.95006572071618</v>
       </c>
       <c r="G5">
-        <v>23.95123968885355</v>
+        <v>2.088307293598026</v>
       </c>
       <c r="H5">
-        <v>22.99042441507533</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>22.89915521093887</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>27.32226429683094</v>
+        <v>6.552000969678631</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>84.34911827780745</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.28326624140198</v>
       </c>
       <c r="M5">
-        <v>89.36559810760662</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>27.11379441620417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.483757474712054</v>
+        <v>9.40181121033503</v>
       </c>
       <c r="D6">
-        <v>5.847277989974368</v>
+        <v>3.884953635571267</v>
       </c>
       <c r="E6">
-        <v>38.28904507645188</v>
+        <v>8.375428308457764</v>
       </c>
       <c r="F6">
-        <v>27.87320525905937</v>
+        <v>36.9145414748987</v>
       </c>
       <c r="G6">
-        <v>23.78004855886225</v>
+        <v>2.089637000967468</v>
       </c>
       <c r="H6">
-        <v>22.82515778550177</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>22.74216636600373</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>27.19103531821368</v>
+        <v>6.556973780103192</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>84.03782700350052</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.28323928986134</v>
       </c>
       <c r="M6">
-        <v>88.96733283264389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>27.09771194339055</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.6503439213416</v>
+        <v>9.524240462968976</v>
       </c>
       <c r="D7">
-        <v>6.016446159945601</v>
+        <v>4.0084703353526</v>
       </c>
       <c r="E7">
-        <v>39.52917311660421</v>
+        <v>8.428205217530028</v>
       </c>
       <c r="F7">
-        <v>29.37805217769541</v>
+        <v>37.18211680471151</v>
       </c>
       <c r="G7">
-        <v>24.98428276876471</v>
+        <v>2.080386747216494</v>
       </c>
       <c r="H7">
-        <v>23.98988418702679</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>23.84546660704255</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>28.10706383532273</v>
+        <v>6.523209406926571</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>86.18591924457255</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.283514924668321</v>
       </c>
       <c r="M7">
-        <v>91.73720325754631</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>27.22707069125402</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.477049366279123</v>
+        <v>10.08263201293162</v>
       </c>
       <c r="D8">
-        <v>6.771881781965103</v>
+        <v>4.566755306632268</v>
       </c>
       <c r="E8">
-        <v>45.27834516843645</v>
+        <v>8.67309868212339</v>
       </c>
       <c r="F8">
-        <v>36.83220752113517</v>
+        <v>38.94323730252486</v>
       </c>
       <c r="G8">
-        <v>30.87779019649422</v>
+        <v>2.038732718482149</v>
       </c>
       <c r="H8">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>32.40294130611187</v>
+        <v>6.395008866593069</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>95.38065657453581</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.28693616316249</v>
       </c>
       <c r="M8">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>28.29282206167289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.477049366279123</v>
+        <v>11.27756946898993</v>
       </c>
       <c r="D9">
-        <v>6.771881781965103</v>
+        <v>5.775379818994647</v>
       </c>
       <c r="E9">
-        <v>45.27834516843645</v>
+        <v>9.213226611287034</v>
       </c>
       <c r="F9">
-        <v>36.83220752113517</v>
+        <v>45.55124188854017</v>
       </c>
       <c r="G9">
-        <v>30.87779019649422</v>
+        <v>1.949519263281377</v>
       </c>
       <c r="H9">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>32.40294130611187</v>
+        <v>6.249189284879982</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>112.7862995339505</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.301686938143132</v>
       </c>
       <c r="M9">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>33.62387204090778</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.477049366279123</v>
+        <v>12.28437255644721</v>
       </c>
       <c r="D10">
-        <v>6.771881781965103</v>
+        <v>6.848273890891135</v>
       </c>
       <c r="E10">
-        <v>45.27834516843645</v>
+        <v>9.67698965303428</v>
       </c>
       <c r="F10">
-        <v>36.83220752113517</v>
+        <v>53.67305637022434</v>
       </c>
       <c r="G10">
-        <v>30.87779019649422</v>
+        <v>1.871471696001999</v>
       </c>
       <c r="H10">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>32.40294130611187</v>
+        <v>6.259997929586546</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>126.1276657875349</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.317390406849317</v>
       </c>
       <c r="M10">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>40.35128743316073</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4.477049366279123</v>
+        <v>12.80571664781223</v>
       </c>
       <c r="D11">
-        <v>6.771881781965103</v>
+        <v>7.433414483055932</v>
       </c>
       <c r="E11">
-        <v>45.27834516843645</v>
+        <v>9.917706746233039</v>
       </c>
       <c r="F11">
-        <v>36.83220752113517</v>
+        <v>58.39288254818008</v>
       </c>
       <c r="G11">
-        <v>30.87779019649422</v>
+        <v>1.829350893049005</v>
       </c>
       <c r="H11">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>32.40294130611187</v>
+        <v>6.316260223723533</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>132.6091408301503</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.325433227939241</v>
       </c>
       <c r="M11">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>44.22684026363773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4.477049366279123</v>
+        <v>13.01916866821361</v>
       </c>
       <c r="D12">
-        <v>6.771881781965103</v>
+        <v>7.679915287699021</v>
       </c>
       <c r="E12">
-        <v>45.27834516843645</v>
+        <v>10.01606163367858</v>
       </c>
       <c r="F12">
-        <v>36.83220752113517</v>
+        <v>60.42051954083112</v>
       </c>
       <c r="G12">
-        <v>30.87779019649422</v>
+        <v>1.811697907907115</v>
       </c>
       <c r="H12">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>32.40294130611187</v>
+        <v>6.364249448175407</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>135.1883471012866</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.328556072669875</v>
       </c>
       <c r="M12">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>45.88647105200869</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4.477049366279123</v>
+        <v>12.97229227402162</v>
       </c>
       <c r="D13">
-        <v>6.771881781965103</v>
+        <v>7.625414347971598</v>
       </c>
       <c r="E13">
-        <v>45.27834516843645</v>
+        <v>9.994478165362434</v>
       </c>
       <c r="F13">
-        <v>36.83220752113517</v>
+        <v>59.97054328820454</v>
       </c>
       <c r="G13">
-        <v>30.87779019649422</v>
+        <v>1.815596371565469</v>
       </c>
       <c r="H13">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>32.40294130611187</v>
+        <v>6.341877889362626</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>134.6255068236254</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.327881841607446</v>
       </c>
       <c r="M13">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>45.51840103549472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>4.477049366279123</v>
+        <v>12.82289061537057</v>
       </c>
       <c r="D14">
-        <v>6.771881781965103</v>
+        <v>7.453091260446771</v>
       </c>
       <c r="E14">
-        <v>45.27834516843645</v>
+        <v>9.925626655746575</v>
       </c>
       <c r="F14">
-        <v>36.83220752113517</v>
+        <v>58.55399655863154</v>
       </c>
       <c r="G14">
-        <v>30.87779019649422</v>
+        <v>1.827939792586352</v>
       </c>
       <c r="H14">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>32.40294130611187</v>
+        <v>6.318727567646712</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>132.8182154028482</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.325689187989897</v>
       </c>
       <c r="M14">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>44.35881682348803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>4.477049366279123</v>
+        <v>12.73378785121291</v>
       </c>
       <c r="D15">
-        <v>6.771881781965103</v>
+        <v>7.35129293297891</v>
       </c>
       <c r="E15">
-        <v>45.27834516843645</v>
+        <v>9.884526124123267</v>
       </c>
       <c r="F15">
-        <v>36.83220752113517</v>
+        <v>57.72196498162707</v>
       </c>
       <c r="G15">
-        <v>30.87779019649422</v>
+        <v>1.835243855945874</v>
       </c>
       <c r="H15">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>32.40294130611187</v>
+        <v>6.306357519998432</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>131.730486828526</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.32435333505795</v>
       </c>
       <c r="M15">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>43.67705311571825</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.477049366279123</v>
+        <v>12.25203391129524</v>
       </c>
       <c r="D16">
-        <v>6.771881781965103</v>
+        <v>6.812713847691895</v>
       </c>
       <c r="E16">
-        <v>45.27834516843645</v>
+        <v>9.662051094553689</v>
       </c>
       <c r="F16">
-        <v>36.83220752113517</v>
+        <v>53.39136260796048</v>
       </c>
       <c r="G16">
-        <v>30.87779019649422</v>
+        <v>1.874041423325326</v>
       </c>
       <c r="H16">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>32.40294130611187</v>
+        <v>6.257676989196309</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>125.7167306928469</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.316879878109434</v>
       </c>
       <c r="M16">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>40.11934095461282</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.477049366279123</v>
+        <v>11.9759951528933</v>
       </c>
       <c r="D17">
-        <v>6.771881781965103</v>
+        <v>6.512392237845067</v>
       </c>
       <c r="E17">
-        <v>45.27834516843645</v>
+        <v>9.53458447732323</v>
       </c>
       <c r="F17">
-        <v>36.83220752113517</v>
+        <v>51.04106221488546</v>
       </c>
       <c r="G17">
-        <v>30.87779019649422</v>
+        <v>1.895790272797969</v>
       </c>
       <c r="H17">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>32.40294130611187</v>
+        <v>6.243293315419199</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>122.1641969837069</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.312505852128595</v>
       </c>
       <c r="M17">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>38.18075794588218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.477049366279123</v>
+        <v>11.82260076653778</v>
       </c>
       <c r="D18">
-        <v>6.771881781965103</v>
+        <v>6.347867495850807</v>
       </c>
       <c r="E18">
-        <v>45.27834516843645</v>
+        <v>9.463822337503247</v>
       </c>
       <c r="F18">
-        <v>36.83220752113517</v>
+        <v>49.77784531047671</v>
       </c>
       <c r="G18">
-        <v>30.87779019649422</v>
+        <v>1.907740250664956</v>
       </c>
       <c r="H18">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>32.40294130611187</v>
+        <v>6.239448334445679</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>120.1539977256316</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.31007935308179</v>
       </c>
       <c r="M18">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>37.13610751733859</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.477049366279123</v>
+        <v>11.77146144860069</v>
       </c>
       <c r="D19">
-        <v>6.771881781965103</v>
+        <v>6.293372005737131</v>
       </c>
       <c r="E19">
-        <v>45.27834516843645</v>
+        <v>9.440248285645099</v>
       </c>
       <c r="F19">
-        <v>36.83220752113517</v>
+        <v>49.36368077944542</v>
       </c>
       <c r="G19">
-        <v>30.87779019649422</v>
+        <v>1.911703991906327</v>
       </c>
       <c r="H19">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>32.40294130611187</v>
+        <v>6.238816931432658</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>119.4778522730537</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.309273814682192</v>
       </c>
       <c r="M19">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>36.79314601155445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.477049366279123</v>
+        <v>12.00479149826334</v>
       </c>
       <c r="D20">
-        <v>6.771881781965103</v>
+        <v>6.54346098031476</v>
       </c>
       <c r="E20">
-        <v>45.27834516843645</v>
+        <v>9.547875592229628</v>
       </c>
       <c r="F20">
-        <v>36.83220752113517</v>
+        <v>51.28165613518581</v>
       </c>
       <c r="G20">
-        <v>30.87779019649422</v>
+        <v>1.893536465325024</v>
       </c>
       <c r="H20">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>32.40294130611187</v>
+        <v>6.244343325948027</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>122.5386331514553</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.312962414188561</v>
       </c>
       <c r="M20">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>38.3794965558309</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4.477049366279123</v>
+        <v>12.86624717331841</v>
       </c>
       <c r="D21">
-        <v>6.771881781965103</v>
+        <v>7.502886294339353</v>
       </c>
       <c r="E21">
-        <v>45.27834516843645</v>
+        <v>9.945616327256355</v>
       </c>
       <c r="F21">
-        <v>36.83220752113517</v>
+        <v>58.96231753580816</v>
       </c>
       <c r="G21">
-        <v>30.87779019649422</v>
+        <v>1.824370317110376</v>
       </c>
       <c r="H21">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>32.40294130611187</v>
+        <v>6.325133747352804</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>133.344814902435</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.32633194775153</v>
       </c>
       <c r="M21">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>44.69320999052835</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4.477049366279123</v>
+        <v>13.53380976093849</v>
       </c>
       <c r="D22">
-        <v>6.771881781965103</v>
+        <v>8.292709294335832</v>
       </c>
       <c r="E22">
-        <v>45.27834516843645</v>
+        <v>10.25215702708658</v>
       </c>
       <c r="F22">
-        <v>36.83220752113517</v>
+        <v>65.533421026399</v>
       </c>
       <c r="G22">
-        <v>30.87779019649422</v>
+        <v>1.768040679441353</v>
       </c>
       <c r="H22">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>32.40294130611187</v>
+        <v>6.796005111834716</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>141.2383814871142</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.335401325551603</v>
       </c>
       <c r="M22">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>50.06054245942828</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4.477049366279123</v>
+        <v>13.16303749537228</v>
       </c>
       <c r="D23">
-        <v>6.771881781965103</v>
+        <v>7.848513657338676</v>
       </c>
       <c r="E23">
-        <v>45.27834516843645</v>
+        <v>10.08223440298499</v>
       </c>
       <c r="F23">
-        <v>36.83220752113517</v>
+        <v>61.81796197567643</v>
       </c>
       <c r="G23">
-        <v>30.87779019649422</v>
+        <v>1.799654371352413</v>
       </c>
       <c r="H23">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>32.40294130611187</v>
+        <v>6.484204666419364</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>136.9033554188111</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.330578790905547</v>
       </c>
       <c r="M23">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>47.02874493745564</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.477049366279123</v>
+        <v>11.99175655255804</v>
       </c>
       <c r="D24">
-        <v>6.771881781965103</v>
+        <v>6.529390104983286</v>
       </c>
       <c r="E24">
-        <v>45.27834516843645</v>
+        <v>9.541859000578462</v>
       </c>
       <c r="F24">
-        <v>36.83220752113517</v>
+        <v>51.17261490471981</v>
       </c>
       <c r="G24">
-        <v>30.87779019649422</v>
+        <v>1.894557092596626</v>
       </c>
       <c r="H24">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>32.40294130611187</v>
+        <v>6.243855119581848</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>122.369254119966</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.312755725230108</v>
       </c>
       <c r="M24">
-        <v>104.3818037156802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>38.28943354197306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.477049366279123</v>
+        <v>10.93871583308215</v>
       </c>
       <c r="D25">
-        <v>6.771881781965103</v>
+        <v>5.4275565399076</v>
       </c>
       <c r="E25">
-        <v>45.27834516843645</v>
+        <v>9.058443659954213</v>
       </c>
       <c r="F25">
-        <v>36.83220752113517</v>
+        <v>43.14544497579154</v>
       </c>
       <c r="G25">
-        <v>30.87779019649422</v>
+        <v>1.975053514223918</v>
       </c>
       <c r="H25">
-        <v>29.7452298092484</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>29.21547282146941</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>32.40294130611187</v>
+        <v>6.273283833172092</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>108.092220542548</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.296828007266876</v>
       </c>
       <c r="M25">
-        <v>104.3818037156802</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>31.61024347392757</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
@@ -424,34 +424,34 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10.23922081166069</v>
+        <v>7.303452002613417</v>
       </c>
       <c r="D2">
-        <v>4.723044745735208</v>
+        <v>2.585993365746019</v>
       </c>
       <c r="E2">
-        <v>8.742816303679426</v>
+        <v>30.22093700489089</v>
       </c>
       <c r="F2">
-        <v>39.5825133202869</v>
+        <v>25.62811961990812</v>
       </c>
       <c r="G2">
-        <v>2.027120381209643</v>
+        <v>37.24334499524853</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.60005204274312</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.366166535800148</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>97.81350112454956</v>
+        <v>25.8410587231005</v>
       </c>
       <c r="L2">
-        <v>5.28840372572187</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.72110038223937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,34 +471,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.791403745703761</v>
+        <v>6.779031317183729</v>
       </c>
       <c r="D3">
-        <v>4.276177207025983</v>
+        <v>2.718759222961673</v>
       </c>
       <c r="E3">
-        <v>8.544584764555445</v>
+        <v>27.93864595418712</v>
       </c>
       <c r="F3">
-        <v>37.91882813901567</v>
+        <v>24.30803033681634</v>
       </c>
       <c r="G3">
-        <v>2.060380026904348</v>
+        <v>35.00233947234382</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.35639498493351</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.456783401938095</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>90.6967944209926</v>
+        <v>24.09292792655328</v>
       </c>
       <c r="L3">
-        <v>5.284755310913341</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>27.64322890159081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,34 +518,34 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.525681940976263</v>
+        <v>6.441290652001546</v>
       </c>
       <c r="D4">
-        <v>4.009920670128809</v>
+        <v>2.800835927857046</v>
       </c>
       <c r="E4">
-        <v>8.428828802042208</v>
+        <v>26.48165583433001</v>
       </c>
       <c r="F4">
-        <v>37.18553754275747</v>
+        <v>23.51710004286062</v>
       </c>
       <c r="G4">
-        <v>2.080278201571644</v>
+        <v>33.64866862102108</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.22522255835303</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.522824691891564</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>86.21088606587145</v>
+        <v>22.96452798378276</v>
       </c>
       <c r="L4">
-        <v>5.2835193501293</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>27.22882948321867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,34 +565,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>9.419356554653637</v>
+        <v>6.299618948541013</v>
       </c>
       <c r="D5">
-        <v>3.902699235778134</v>
+        <v>2.834451435278056</v>
       </c>
       <c r="E5">
-        <v>8.38296868085142</v>
+        <v>25.87331011789011</v>
       </c>
       <c r="F5">
-        <v>36.95006572071618</v>
+        <v>23.199898895679</v>
       </c>
       <c r="G5">
-        <v>2.088307293598026</v>
+        <v>33.10300262058085</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.17618875558124</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.552000969678631</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>84.34911827780745</v>
+        <v>22.49065380431659</v>
       </c>
       <c r="L5">
-        <v>5.28326624140198</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>27.11379441620417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,34 +612,34 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>9.40181121033503</v>
+        <v>6.275848237848812</v>
       </c>
       <c r="D6">
-        <v>3.884953635571267</v>
+        <v>2.840044316726383</v>
       </c>
       <c r="E6">
-        <v>8.375428308457764</v>
+        <v>25.77139550268123</v>
       </c>
       <c r="F6">
-        <v>36.9145414748987</v>
+        <v>23.14754290106383</v>
       </c>
       <c r="G6">
-        <v>2.089637000967468</v>
+        <v>33.01276889837421</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.16830721271273</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.556973780103192</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>84.03782700350052</v>
+        <v>22.41111386252476</v>
       </c>
       <c r="L6">
-        <v>5.28323928986134</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>27.09771194339055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,34 +659,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.524240462968976</v>
+        <v>6.439396476723139</v>
       </c>
       <c r="D7">
-        <v>4.0084703353526</v>
+        <v>2.801288556630939</v>
       </c>
       <c r="E7">
-        <v>8.428205217530028</v>
+        <v>26.47351139785095</v>
       </c>
       <c r="F7">
-        <v>37.18211680471151</v>
+        <v>23.51280118688872</v>
       </c>
       <c r="G7">
-        <v>2.080386747216494</v>
+        <v>33.64128483864022</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.22454366597096</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.523209406926571</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>86.18591924457255</v>
+        <v>22.95819425443828</v>
       </c>
       <c r="L7">
-        <v>5.283514924668321</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>27.22707069125402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,34 +706,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>10.08263201293162</v>
+        <v>7.125848991838138</v>
       </c>
       <c r="D8">
-        <v>4.566755306632268</v>
+        <v>2.631671318913705</v>
       </c>
       <c r="E8">
-        <v>8.67309868212339</v>
+        <v>29.4451628117089</v>
       </c>
       <c r="F8">
-        <v>38.94323730252486</v>
+        <v>25.16896710523618</v>
       </c>
       <c r="G8">
-        <v>2.038732718482149</v>
+        <v>36.46617430156213</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.51208601513818</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.395008866593069</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>95.38065657453581</v>
+        <v>25.24959702890779</v>
       </c>
       <c r="L8">
-        <v>5.28693616316249</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>28.29282206167289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,34 +753,34 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>11.27756946898993</v>
+        <v>8.351053503289926</v>
       </c>
       <c r="D9">
-        <v>5.775379818994647</v>
+        <v>2.302466731094639</v>
       </c>
       <c r="E9">
-        <v>9.213226611287034</v>
+        <v>34.86266484527745</v>
       </c>
       <c r="F9">
-        <v>45.55124188854017</v>
+        <v>28.56909310239558</v>
       </c>
       <c r="G9">
-        <v>1.949519263281377</v>
+        <v>42.20496875503309</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>11.23158907874356</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.249189284879982</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>112.7862995339505</v>
+        <v>29.31691342637506</v>
       </c>
       <c r="L9">
-        <v>5.301686938143132</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>33.62387204090778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,34 +800,34 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.28437255644721</v>
+        <v>9.183728060748459</v>
       </c>
       <c r="D10">
-        <v>6.848273890891135</v>
+        <v>2.0621839597179</v>
       </c>
       <c r="E10">
-        <v>9.67698965303428</v>
+        <v>38.64481097652483</v>
       </c>
       <c r="F10">
-        <v>53.67305637022434</v>
+        <v>31.40945367825429</v>
       </c>
       <c r="G10">
-        <v>1.871471696001999</v>
+        <v>46.68327827619006</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>11.86823481380824</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.259997929586546</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>126.1276657875349</v>
+        <v>32.06267405453931</v>
       </c>
       <c r="L10">
-        <v>5.317390406849317</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>40.35128743316073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,34 +847,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.80571664781223</v>
+        <v>9.549501518568269</v>
       </c>
       <c r="D11">
-        <v>7.433414483055932</v>
+        <v>1.953635364303777</v>
       </c>
       <c r="E11">
-        <v>9.917706746233039</v>
+        <v>40.33675882187387</v>
       </c>
       <c r="F11">
-        <v>58.39288254818008</v>
+        <v>32.76602205463406</v>
       </c>
       <c r="G11">
-        <v>1.829350893049005</v>
+        <v>48.74349430091603</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>12.18448725870259</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.316260223723533</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>132.6091408301503</v>
+        <v>33.26380006583362</v>
       </c>
       <c r="L11">
-        <v>5.325433227939241</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>44.22684026363773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,34 +894,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.01916866821361</v>
+        <v>9.686297728243844</v>
       </c>
       <c r="D12">
-        <v>7.679915287699021</v>
+        <v>1.912748018142784</v>
       </c>
       <c r="E12">
-        <v>10.01606163367858</v>
+        <v>40.97483810202932</v>
       </c>
       <c r="F12">
-        <v>60.42051954083112</v>
+        <v>33.28114063113529</v>
       </c>
       <c r="G12">
-        <v>1.811697907907115</v>
+        <v>49.52811361375231</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>12.31067662175748</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.364249448175407</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>135.1883471012866</v>
+        <v>33.71220833998319</v>
       </c>
       <c r="L12">
-        <v>5.328556072669875</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>45.88647105200869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,34 +941,34 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>12.97229227402162</v>
+        <v>9.656909687571927</v>
       </c>
       <c r="D13">
-        <v>7.625414347971598</v>
+        <v>1.92154142233668</v>
       </c>
       <c r="E13">
-        <v>9.994478165362434</v>
+        <v>40.83750612333402</v>
       </c>
       <c r="F13">
-        <v>59.97054328820454</v>
+        <v>33.17012375734746</v>
       </c>
       <c r="G13">
-        <v>1.815596371565469</v>
+        <v>49.3589108440633</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>12.28151165328404</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.341877889362626</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>134.6255068236254</v>
+        <v>33.61591346477123</v>
       </c>
       <c r="L13">
-        <v>5.327881841607446</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>45.51840103549472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,34 +988,34 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.82289061537057</v>
+        <v>9.560789192380639</v>
       </c>
       <c r="D14">
-        <v>7.453091260446771</v>
+        <v>1.950266225084406</v>
       </c>
       <c r="E14">
-        <v>9.925626655746575</v>
+        <v>40.38929700508279</v>
       </c>
       <c r="F14">
-        <v>58.55399655863154</v>
+        <v>32.80836786691832</v>
       </c>
       <c r="G14">
-        <v>1.827939792586352</v>
+        <v>48.80794800857305</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>12.19459544769234</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.318727567646712</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>132.8182154028482</v>
+        <v>33.30081686903191</v>
       </c>
       <c r="L14">
-        <v>5.325689187989897</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>44.35881682348803</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,34 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.73378785121291</v>
+        <v>9.501694452174782</v>
       </c>
       <c r="D15">
-        <v>7.35129293297891</v>
+        <v>1.967894101493253</v>
       </c>
       <c r="E15">
-        <v>9.884526124123267</v>
+        <v>40.11446335351516</v>
       </c>
       <c r="F15">
-        <v>57.72196498162707</v>
+        <v>32.58699149282292</v>
       </c>
       <c r="G15">
-        <v>1.835243855945874</v>
+        <v>48.47108910401697</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>12.1419060273536</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.306357519998432</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>131.730486828526</v>
+        <v>33.10698848515868</v>
       </c>
       <c r="L15">
-        <v>5.32435333505795</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>43.67705311571825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,34 +1082,34 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.25203391129524</v>
+        <v>9.159574916454902</v>
       </c>
       <c r="D16">
-        <v>6.812713847691895</v>
+        <v>2.069300499425262</v>
       </c>
       <c r="E16">
-        <v>9.662051094553689</v>
+        <v>38.53378351583487</v>
       </c>
       <c r="F16">
-        <v>53.39136260796048</v>
+        <v>31.32095271556288</v>
       </c>
       <c r="G16">
-        <v>1.874041423325326</v>
+        <v>46.54919099602738</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>11.84812819100636</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.257676989196309</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>125.7167306928469</v>
+        <v>31.98325073217853</v>
       </c>
       <c r="L16">
-        <v>5.316879878109434</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>40.11934095461282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,34 +1129,34 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.9759951528933</v>
+        <v>8.946466880190798</v>
       </c>
       <c r="D17">
-        <v>6.512392237845067</v>
+        <v>2.131756565222596</v>
       </c>
       <c r="E17">
-        <v>9.53458447732323</v>
+        <v>37.55773684859766</v>
       </c>
       <c r="F17">
-        <v>51.04106221488546</v>
+        <v>30.54596520520679</v>
       </c>
       <c r="G17">
-        <v>1.895790272797969</v>
+        <v>45.37676207290941</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>11.67493127096701</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.243293315419199</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>122.1641969837069</v>
+        <v>31.2819012167847</v>
       </c>
       <c r="L17">
-        <v>5.312505852128595</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>38.18075794588218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,34 +1176,34 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.82260076653778</v>
+        <v>8.822657119818979</v>
       </c>
       <c r="D18">
-        <v>6.347867495850807</v>
+        <v>2.167740773813079</v>
       </c>
       <c r="E18">
-        <v>9.463822337503247</v>
+        <v>36.99354753191196</v>
       </c>
       <c r="F18">
-        <v>49.77784531047671</v>
+        <v>30.10061642836862</v>
       </c>
       <c r="G18">
-        <v>1.907740250664956</v>
+        <v>44.70448715114311</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>11.57779926997859</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.239448334445679</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>120.1539977256316</v>
+        <v>30.87396003752458</v>
       </c>
       <c r="L18">
-        <v>5.31007935308179</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>37.13610751733859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,34 +1223,34 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.77146144860069</v>
+        <v>8.780520629571319</v>
       </c>
       <c r="D19">
-        <v>6.293372005737131</v>
+        <v>2.179932891984478</v>
       </c>
       <c r="E19">
-        <v>9.440248285645099</v>
+        <v>36.80200244220843</v>
       </c>
       <c r="F19">
-        <v>49.36368077944542</v>
+        <v>29.94988025468295</v>
       </c>
       <c r="G19">
-        <v>1.911703991906327</v>
+        <v>44.47719394408254</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>11.54533051517205</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.238816931432658</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>119.4778522730537</v>
+        <v>30.7350450002254</v>
       </c>
       <c r="L19">
-        <v>5.309273814682192</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>36.79314601155445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,34 +1270,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>12.00479149826334</v>
+        <v>8.969279417370299</v>
       </c>
       <c r="D20">
-        <v>6.54346098031476</v>
+        <v>2.125101161416752</v>
       </c>
       <c r="E20">
-        <v>9.547875592229628</v>
+        <v>37.66191793722196</v>
       </c>
       <c r="F20">
-        <v>51.28165613518581</v>
+        <v>30.62841774577688</v>
       </c>
       <c r="G20">
-        <v>1.893536465325024</v>
+        <v>45.50134724379511</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>11.69310899421775</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.244343325948027</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>122.5386331514553</v>
+        <v>31.35702820968281</v>
       </c>
       <c r="L20">
-        <v>5.312962414188561</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>38.3794965558309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,34 +1317,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.86624717331841</v>
+        <v>9.589067259980562</v>
       </c>
       <c r="D21">
-        <v>7.502886294339353</v>
+        <v>1.94182182366419</v>
       </c>
       <c r="E21">
-        <v>9.945616327256355</v>
+        <v>40.52100478041766</v>
       </c>
       <c r="F21">
-        <v>58.96231753580816</v>
+        <v>32.91457905678857</v>
       </c>
       <c r="G21">
-        <v>1.824370317110376</v>
+        <v>48.96964695619744</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>12.22000974061285</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.325133747352804</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>133.344814902435</v>
+        <v>33.39353887299613</v>
       </c>
       <c r="L21">
-        <v>5.32633194775153</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>44.69320999052835</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,34 +1364,34 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>13.53380976093849</v>
+        <v>9.984234492512742</v>
       </c>
       <c r="D22">
-        <v>8.292709294335832</v>
+        <v>1.823434918371383</v>
       </c>
       <c r="E22">
-        <v>10.25215702708658</v>
+        <v>42.37521030806548</v>
       </c>
       <c r="F22">
-        <v>65.533421026399</v>
+        <v>34.41747782797844</v>
       </c>
       <c r="G22">
-        <v>1.768040679441353</v>
+        <v>51.26321099432809</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>12.73195500862155</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.796005111834716</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>141.2383814871142</v>
+        <v>34.68730036069894</v>
       </c>
       <c r="L22">
-        <v>5.335401325551603</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>50.06054245942828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,34 +1411,34 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.16303749537228</v>
+        <v>9.774173418475916</v>
       </c>
       <c r="D23">
-        <v>7.848513657338676</v>
+        <v>1.886429694545152</v>
       </c>
       <c r="E23">
-        <v>10.08223440298499</v>
+        <v>41.3863269531567</v>
       </c>
       <c r="F23">
-        <v>61.81796197567643</v>
+        <v>33.6142513085505</v>
       </c>
       <c r="G23">
-        <v>1.799654371352413</v>
+        <v>50.03615070051307</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>12.4339356721397</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.484204666419364</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>136.9033554188111</v>
+        <v>34.00002673300851</v>
       </c>
       <c r="L23">
-        <v>5.330578790905547</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>47.02874493745564</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,34 +1458,34 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.99175655255804</v>
+        <v>8.958969902301904</v>
       </c>
       <c r="D24">
-        <v>6.529390104983286</v>
+        <v>2.128109835351793</v>
       </c>
       <c r="E24">
-        <v>9.541859000578462</v>
+        <v>37.61482726437325</v>
       </c>
       <c r="F24">
-        <v>51.17261490471981</v>
+        <v>30.5911403739843</v>
       </c>
       <c r="G24">
-        <v>1.894557092596626</v>
+        <v>45.44501685593794</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11.68488326423624</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.243855119581848</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>122.369254119966</v>
+        <v>31.32307805017141</v>
       </c>
       <c r="L24">
-        <v>5.312755725230108</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>38.28943354197306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,34 +1505,34 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.93871583308215</v>
+        <v>8.031948646176355</v>
       </c>
       <c r="D25">
-        <v>5.4275565399076</v>
+        <v>2.391272111663905</v>
       </c>
       <c r="E25">
-        <v>9.058443659954213</v>
+        <v>33.43610959008739</v>
       </c>
       <c r="F25">
-        <v>43.14544497579154</v>
+        <v>27.63296158653476</v>
       </c>
       <c r="G25">
-        <v>1.975053514223918</v>
+        <v>40.61383076218251</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>11.01895776709591</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.273283833172092</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>108.092220542548</v>
+        <v>28.26058225332249</v>
       </c>
       <c r="L25">
-        <v>5.296828007266876</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.61024347392757</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.303452002613417</v>
+        <v>4.919248675181835</v>
       </c>
       <c r="D2">
-        <v>2.585993365746019</v>
+        <v>4.444518641865266</v>
       </c>
       <c r="E2">
-        <v>30.22093700489089</v>
+        <v>16.4883950170072</v>
       </c>
       <c r="F2">
-        <v>25.62811961990812</v>
+        <v>25.98330712881918</v>
       </c>
       <c r="G2">
-        <v>37.24334499524853</v>
+        <v>32.51817556220112</v>
       </c>
       <c r="H2">
-        <v>10.60005204274312</v>
+        <v>14.58649485554098</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>25.8410587231005</v>
+        <v>16.19582613023564</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.779031317183729</v>
+        <v>4.749650641995536</v>
       </c>
       <c r="D3">
-        <v>2.718759222961673</v>
+        <v>4.476679295345932</v>
       </c>
       <c r="E3">
-        <v>27.93864595418712</v>
+        <v>15.54930813216279</v>
       </c>
       <c r="F3">
-        <v>24.30803033681634</v>
+        <v>25.8628325103482</v>
       </c>
       <c r="G3">
-        <v>35.00233947234382</v>
+        <v>32.20013365927797</v>
       </c>
       <c r="H3">
-        <v>10.35639498493351</v>
+        <v>14.62942355217465</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24.09292792655328</v>
+        <v>15.48873386670668</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.441290652001546</v>
+        <v>4.644054114636938</v>
       </c>
       <c r="D4">
-        <v>2.800835927857046</v>
+        <v>4.497253722014158</v>
       </c>
       <c r="E4">
-        <v>26.48165583433001</v>
+        <v>14.94854815358411</v>
       </c>
       <c r="F4">
-        <v>23.51710004286062</v>
+        <v>25.80175334974446</v>
       </c>
       <c r="G4">
-        <v>33.64866862102108</v>
+        <v>32.02427274474193</v>
       </c>
       <c r="H4">
-        <v>10.22522255835303</v>
+        <v>14.66096056113957</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.96452798378276</v>
+        <v>15.04004877232157</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.299618948541013</v>
+        <v>4.600731489586811</v>
       </c>
       <c r="D5">
-        <v>2.834451435278056</v>
+        <v>4.505847100731531</v>
       </c>
       <c r="E5">
-        <v>25.87331011789011</v>
+        <v>14.69792960780875</v>
       </c>
       <c r="F5">
-        <v>23.199898895679</v>
+        <v>25.78010867863454</v>
       </c>
       <c r="G5">
-        <v>33.10300262058085</v>
+        <v>31.95755412377848</v>
       </c>
       <c r="H5">
-        <v>10.17618875558124</v>
+        <v>14.67510329872941</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.49065380431659</v>
+        <v>14.8538124505776</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.275848237848812</v>
+        <v>4.5935225675547</v>
       </c>
       <c r="D6">
-        <v>2.840044316726383</v>
+        <v>4.507286685816489</v>
       </c>
       <c r="E6">
-        <v>25.77139550268123</v>
+        <v>14.6559729994206</v>
       </c>
       <c r="F6">
-        <v>23.14754290106383</v>
+        <v>25.77671059238801</v>
       </c>
       <c r="G6">
-        <v>33.01276889837421</v>
+        <v>31.94677581217788</v>
       </c>
       <c r="H6">
-        <v>10.16830721271273</v>
+        <v>14.67752934019327</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.41111386252476</v>
+        <v>14.82269136099103</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.439396476723139</v>
+        <v>4.643470923946005</v>
       </c>
       <c r="D7">
-        <v>2.801288556630939</v>
+        <v>4.497368767277898</v>
       </c>
       <c r="E7">
-        <v>26.47351139785095</v>
+        <v>14.94519132743234</v>
       </c>
       <c r="F7">
-        <v>23.51280118688872</v>
+        <v>25.80144830157152</v>
       </c>
       <c r="G7">
-        <v>33.64128483864022</v>
+        <v>32.02335285616903</v>
       </c>
       <c r="H7">
-        <v>10.22454366597096</v>
+        <v>14.66114608233373</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.95819425443828</v>
+        <v>15.03755049587162</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.125848991838138</v>
+        <v>4.861118969828937</v>
       </c>
       <c r="D8">
-        <v>2.631671318913705</v>
+        <v>4.45543646128034</v>
       </c>
       <c r="E8">
-        <v>29.4451628117089</v>
+        <v>16.1697581022852</v>
       </c>
       <c r="F8">
-        <v>25.16896710523618</v>
+        <v>25.93909585414612</v>
       </c>
       <c r="G8">
-        <v>36.46617430156213</v>
+        <v>32.40452740869576</v>
       </c>
       <c r="H8">
-        <v>10.51208601513818</v>
+        <v>14.60021533119003</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>25.24959702890779</v>
+        <v>15.95518112642491</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.351053503289926</v>
+        <v>5.273261840325862</v>
       </c>
       <c r="D9">
-        <v>2.302466731094639</v>
+        <v>4.379728775653839</v>
       </c>
       <c r="E9">
-        <v>34.86266484527745</v>
+        <v>18.45690302754691</v>
       </c>
       <c r="F9">
-        <v>28.56909310239558</v>
+        <v>26.31082894146667</v>
       </c>
       <c r="G9">
-        <v>42.20496875503309</v>
+        <v>33.30251506233174</v>
       </c>
       <c r="H9">
-        <v>11.23158907874356</v>
+        <v>14.52229387727257</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>29.31691342637506</v>
+        <v>17.62965461531941</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.183728060748459</v>
+        <v>5.563465931670671</v>
       </c>
       <c r="D10">
-        <v>2.0621839597179</v>
+        <v>4.328018964123547</v>
       </c>
       <c r="E10">
-        <v>38.64481097652483</v>
+        <v>20.11216349655488</v>
       </c>
       <c r="F10">
-        <v>31.40945367825429</v>
+        <v>26.64487798257866</v>
       </c>
       <c r="G10">
-        <v>46.68327827619006</v>
+        <v>34.04822508425956</v>
       </c>
       <c r="H10">
-        <v>11.86823481380824</v>
+        <v>14.49099857716713</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>32.06267405453931</v>
+        <v>18.77277215515562</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.549501518568269</v>
+        <v>5.692102092442505</v>
       </c>
       <c r="D11">
-        <v>1.953635364303777</v>
+        <v>4.305331368372868</v>
       </c>
       <c r="E11">
-        <v>40.33675882187387</v>
+        <v>20.82353206773012</v>
       </c>
       <c r="F11">
-        <v>32.76602205463406</v>
+        <v>26.80970058468992</v>
       </c>
       <c r="G11">
-        <v>48.74349430091603</v>
+        <v>34.40464785571038</v>
       </c>
       <c r="H11">
-        <v>12.18448725870259</v>
+        <v>14.48251740359033</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>33.26380006583362</v>
+        <v>19.27211270608633</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.686297728243844</v>
+        <v>5.740281110487142</v>
       </c>
       <c r="D12">
-        <v>1.912748018142784</v>
+        <v>4.296859348277849</v>
       </c>
       <c r="E12">
-        <v>40.97483810202932</v>
+        <v>21.08696447370156</v>
       </c>
       <c r="F12">
-        <v>33.28114063113529</v>
+        <v>26.87392345287176</v>
       </c>
       <c r="G12">
-        <v>49.52811361375231</v>
+        <v>34.54195092691207</v>
       </c>
       <c r="H12">
-        <v>12.31067662175748</v>
+        <v>14.4801422925193</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>33.71220833998319</v>
+        <v>19.45810938600309</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.656909687571927</v>
+        <v>5.729929276039331</v>
       </c>
       <c r="D13">
-        <v>1.92154142233668</v>
+        <v>4.298678657700345</v>
       </c>
       <c r="E13">
-        <v>40.83750612333402</v>
+        <v>21.03049351563482</v>
       </c>
       <c r="F13">
-        <v>33.17012375734746</v>
+        <v>26.86001220946938</v>
       </c>
       <c r="G13">
-        <v>49.3589108440633</v>
+        <v>34.5122787590954</v>
       </c>
       <c r="H13">
-        <v>12.28151165328404</v>
+        <v>14.48061647536069</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>33.61591346477123</v>
+        <v>19.41819093961609</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.560789192380639</v>
+        <v>5.696076733980806</v>
       </c>
       <c r="D14">
-        <v>1.950266225084406</v>
+        <v>4.304631984446089</v>
       </c>
       <c r="E14">
-        <v>40.38929700508279</v>
+        <v>20.84532379348005</v>
       </c>
       <c r="F14">
-        <v>32.80836786691832</v>
+        <v>26.81494825781008</v>
       </c>
       <c r="G14">
-        <v>48.80794800857305</v>
+        <v>34.41589791680013</v>
       </c>
       <c r="H14">
-        <v>12.19459544769234</v>
+        <v>14.48230518778797</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>33.30081686903191</v>
+        <v>19.28747737025427</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.501694452174782</v>
+        <v>5.675270405735048</v>
       </c>
       <c r="D15">
-        <v>1.967894101493253</v>
+        <v>4.308294077786764</v>
       </c>
       <c r="E15">
-        <v>40.11446335351516</v>
+        <v>20.73112856050771</v>
       </c>
       <c r="F15">
-        <v>32.58699149282292</v>
+        <v>26.7875794348484</v>
       </c>
       <c r="G15">
-        <v>48.47108910401697</v>
+        <v>34.35716150938089</v>
       </c>
       <c r="H15">
-        <v>12.1419060273536</v>
+        <v>14.48344876686517</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>33.10698848515868</v>
+        <v>19.20700552000778</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.159574916454902</v>
+        <v>5.554987133248692</v>
       </c>
       <c r="D16">
-        <v>2.069300499425262</v>
+        <v>4.32951838940854</v>
       </c>
       <c r="E16">
-        <v>38.53378351583487</v>
+        <v>20.06483961127597</v>
       </c>
       <c r="F16">
-        <v>31.32095271556288</v>
+        <v>26.63436184087534</v>
       </c>
       <c r="G16">
-        <v>46.54919099602738</v>
+        <v>34.02526630191414</v>
       </c>
       <c r="H16">
-        <v>11.84812819100636</v>
+        <v>14.49166943014764</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>31.98325073217853</v>
+        <v>18.73971240533232</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.946466880190798</v>
+        <v>5.480296705338666</v>
       </c>
       <c r="D17">
-        <v>2.131756565222596</v>
+        <v>4.342752178229222</v>
       </c>
       <c r="E17">
-        <v>37.55773684859766</v>
+        <v>19.64546010490858</v>
       </c>
       <c r="F17">
-        <v>30.54596520520679</v>
+        <v>26.54363439276447</v>
       </c>
       <c r="G17">
-        <v>45.37676207290941</v>
+        <v>33.82596685421764</v>
       </c>
       <c r="H17">
-        <v>11.67493127096701</v>
+        <v>14.49819315396954</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>31.2819012167847</v>
+        <v>18.44765723767933</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.822657119818979</v>
+        <v>5.437021119347742</v>
       </c>
       <c r="D18">
-        <v>2.167740773813079</v>
+        <v>4.350442590225636</v>
       </c>
       <c r="E18">
-        <v>36.99354753191196</v>
+        <v>19.40032463661223</v>
       </c>
       <c r="F18">
-        <v>30.10061642836862</v>
+        <v>26.49266384808683</v>
       </c>
       <c r="G18">
-        <v>44.70448715114311</v>
+        <v>33.71296246979541</v>
       </c>
       <c r="H18">
-        <v>11.57779926997859</v>
+        <v>14.5024866422991</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>30.87396003752458</v>
+        <v>18.27773519877791</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.780520629571319</v>
+        <v>5.422316056848641</v>
       </c>
       <c r="D19">
-        <v>2.179932891984478</v>
+        <v>4.353059972669789</v>
       </c>
       <c r="E19">
-        <v>36.80200244220843</v>
+        <v>19.31665167285689</v>
       </c>
       <c r="F19">
-        <v>29.94988025468295</v>
+        <v>26.47561568478598</v>
       </c>
       <c r="G19">
-        <v>44.47719394408254</v>
+        <v>33.67498475310814</v>
       </c>
       <c r="H19">
-        <v>11.54533051517205</v>
+        <v>14.50403301476275</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>30.7350450002254</v>
+        <v>18.21987337824691</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.969279417370299</v>
+        <v>5.488280651570977</v>
       </c>
       <c r="D20">
-        <v>2.125101161416752</v>
+        <v>4.341335281354494</v>
       </c>
       <c r="E20">
-        <v>37.66191793722196</v>
+        <v>19.69050914970961</v>
       </c>
       <c r="F20">
-        <v>30.62841774577688</v>
+        <v>26.55316717601255</v>
       </c>
       <c r="G20">
-        <v>45.50134724379511</v>
+        <v>33.84701517805356</v>
       </c>
       <c r="H20">
-        <v>11.69310899421775</v>
+        <v>14.49744261194699</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>31.35702820968281</v>
+        <v>18.47894868816586</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.589067259980562</v>
+        <v>5.706034849372579</v>
       </c>
       <c r="D21">
-        <v>1.94182182366419</v>
+        <v>4.302880117529673</v>
       </c>
       <c r="E21">
-        <v>40.52100478041766</v>
+        <v>20.89987374584484</v>
       </c>
       <c r="F21">
-        <v>32.91457905678857</v>
+        <v>26.8281359178695</v>
       </c>
       <c r="G21">
-        <v>48.96964695619744</v>
+        <v>34.4441451191644</v>
       </c>
       <c r="H21">
-        <v>12.22000974061285</v>
+        <v>14.48178640108065</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.39353887299613</v>
+        <v>19.32595591572021</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.984234492512742</v>
+        <v>5.845226879203546</v>
       </c>
       <c r="D22">
-        <v>1.823434918371383</v>
+        <v>4.278442323150961</v>
       </c>
       <c r="E22">
-        <v>42.37521030806548</v>
+        <v>21.65561435974893</v>
       </c>
       <c r="F22">
-        <v>34.41747782797844</v>
+        <v>27.0183600753009</v>
       </c>
       <c r="G22">
-        <v>51.26321099432809</v>
+        <v>34.84793650686856</v>
       </c>
       <c r="H22">
-        <v>12.73195500862155</v>
+        <v>14.47643373549416</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>34.68730036069894</v>
+        <v>19.8614543507497</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.774173418475916</v>
+        <v>5.771237281426264</v>
       </c>
       <c r="D23">
-        <v>1.886429694545152</v>
+        <v>4.29142192822723</v>
       </c>
       <c r="E23">
-        <v>41.3863269531567</v>
+        <v>21.25541952971247</v>
       </c>
       <c r="F23">
-        <v>33.6142513085505</v>
+        <v>26.9158866979076</v>
       </c>
       <c r="G23">
-        <v>50.03615070051307</v>
+        <v>34.63123488784295</v>
       </c>
       <c r="H23">
-        <v>12.4339356721397</v>
+        <v>14.47884129607636</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>34.00002673300851</v>
+        <v>19.57733710042014</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.958969902301904</v>
+        <v>5.484672149520582</v>
       </c>
       <c r="D24">
-        <v>2.128109835351793</v>
+        <v>4.341975604548146</v>
       </c>
       <c r="E24">
-        <v>37.61482726437325</v>
+        <v>19.67015502756954</v>
       </c>
       <c r="F24">
-        <v>30.5911403739843</v>
+        <v>26.54885369543834</v>
       </c>
       <c r="G24">
-        <v>45.44501685593794</v>
+        <v>33.8374943129646</v>
       </c>
       <c r="H24">
-        <v>11.68488326423624</v>
+        <v>14.49778024162866</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>31.32307805017141</v>
+        <v>18.46480809230224</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.031948646176355</v>
+        <v>5.163737942608901</v>
       </c>
       <c r="D25">
-        <v>2.391272111663905</v>
+        <v>4.399518154319042</v>
       </c>
       <c r="E25">
-        <v>33.43610959008739</v>
+        <v>17.81018603093844</v>
       </c>
       <c r="F25">
-        <v>27.63296158653476</v>
+        <v>26.19945639577376</v>
       </c>
       <c r="G25">
-        <v>40.61383076218251</v>
+        <v>33.04402059477714</v>
       </c>
       <c r="H25">
-        <v>11.01895776709591</v>
+        <v>14.53885838887229</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>28.26058225332249</v>
+        <v>17.1912815158128</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.919248675181835</v>
+        <v>7.303452002613478</v>
       </c>
       <c r="D2">
-        <v>4.444518641865266</v>
+        <v>2.585993365746017</v>
       </c>
       <c r="E2">
-        <v>16.4883950170072</v>
+        <v>30.22093700489085</v>
       </c>
       <c r="F2">
-        <v>25.98330712881918</v>
+        <v>25.62811961990829</v>
       </c>
       <c r="G2">
-        <v>32.51817556220112</v>
+        <v>37.24334499524883</v>
       </c>
       <c r="H2">
-        <v>14.58649485554098</v>
+        <v>10.60005204274321</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.19582613023564</v>
+        <v>25.84105872310048</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749650641995536</v>
+        <v>6.779031317183744</v>
       </c>
       <c r="D3">
-        <v>4.476679295345932</v>
+        <v>2.718759222961677</v>
       </c>
       <c r="E3">
-        <v>15.54930813216279</v>
+        <v>27.93864595418703</v>
       </c>
       <c r="F3">
-        <v>25.8628325103482</v>
+        <v>24.30803033681645</v>
       </c>
       <c r="G3">
-        <v>32.20013365927797</v>
+        <v>35.00233947234398</v>
       </c>
       <c r="H3">
-        <v>14.62942355217465</v>
+        <v>10.35639498493356</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>15.48873386670668</v>
+        <v>24.09292792655322</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.644054114636938</v>
+        <v>6.441290652001396</v>
       </c>
       <c r="D4">
-        <v>4.497253722014158</v>
+        <v>2.800835927857182</v>
       </c>
       <c r="E4">
-        <v>14.94854815358411</v>
+        <v>26.48165583432997</v>
       </c>
       <c r="F4">
-        <v>25.80175334974446</v>
+        <v>23.51710004286051</v>
       </c>
       <c r="G4">
-        <v>32.02427274474193</v>
+        <v>33.64866862102105</v>
       </c>
       <c r="H4">
-        <v>14.66096056113957</v>
+        <v>10.22522255835299</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.04004877232157</v>
+        <v>22.9645279837828</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.600731489586811</v>
+        <v>6.299618948540971</v>
       </c>
       <c r="D5">
-        <v>4.505847100731531</v>
+        <v>2.834451435277991</v>
       </c>
       <c r="E5">
-        <v>14.69792960780875</v>
+        <v>25.87331011789007</v>
       </c>
       <c r="F5">
-        <v>25.78010867863454</v>
+        <v>23.19989889567894</v>
       </c>
       <c r="G5">
-        <v>31.95755412377848</v>
+        <v>33.10300262058081</v>
       </c>
       <c r="H5">
-        <v>14.67510329872941</v>
+        <v>10.17618875558122</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>14.8538124505776</v>
+        <v>22.49065380431659</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.5935225675547</v>
+        <v>6.275848237848821</v>
       </c>
       <c r="D6">
-        <v>4.507286685816489</v>
+        <v>2.840044316726317</v>
       </c>
       <c r="E6">
-        <v>14.6559729994206</v>
+        <v>25.77139550268116</v>
       </c>
       <c r="F6">
-        <v>25.77671059238801</v>
+        <v>23.14754290106384</v>
       </c>
       <c r="G6">
-        <v>31.94677581217788</v>
+        <v>33.01276889837425</v>
       </c>
       <c r="H6">
-        <v>14.67752934019327</v>
+        <v>10.16830721271273</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>14.82269136099103</v>
+        <v>22.41111386252479</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.643470923946005</v>
+        <v>6.439396476723172</v>
       </c>
       <c r="D7">
-        <v>4.497368767277898</v>
+        <v>2.801288556630939</v>
       </c>
       <c r="E7">
-        <v>14.94519132743234</v>
+        <v>26.47351139785097</v>
       </c>
       <c r="F7">
-        <v>25.80144830157152</v>
+        <v>23.51280118688872</v>
       </c>
       <c r="G7">
-        <v>32.02335285616903</v>
+        <v>33.64128483864024</v>
       </c>
       <c r="H7">
-        <v>14.66114608233373</v>
+        <v>10.22454366597096</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.03755049587162</v>
+        <v>22.95819425443826</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.861118969828937</v>
+        <v>7.125848991838122</v>
       </c>
       <c r="D8">
-        <v>4.45543646128034</v>
+        <v>2.631671318913841</v>
       </c>
       <c r="E8">
-        <v>16.1697581022852</v>
+        <v>29.44516281170889</v>
       </c>
       <c r="F8">
-        <v>25.93909585414612</v>
+        <v>25.16896710523616</v>
       </c>
       <c r="G8">
-        <v>32.40452740869576</v>
+        <v>36.46617430156219</v>
       </c>
       <c r="H8">
-        <v>14.60021533119003</v>
+        <v>10.51208601513814</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>15.95518112642491</v>
+        <v>25.24959702890784</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.273261840325862</v>
+        <v>8.351053503289959</v>
       </c>
       <c r="D9">
-        <v>4.379728775653839</v>
+        <v>2.302466731094579</v>
       </c>
       <c r="E9">
-        <v>18.45690302754691</v>
+        <v>34.86266484527761</v>
       </c>
       <c r="F9">
-        <v>26.31082894146667</v>
+        <v>28.56909310239562</v>
       </c>
       <c r="G9">
-        <v>33.30251506233174</v>
+        <v>42.20496875503325</v>
       </c>
       <c r="H9">
-        <v>14.52229387727257</v>
+        <v>11.23158907874349</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.62965461531941</v>
+        <v>29.31691342637517</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.563465931670671</v>
+        <v>9.183728060748441</v>
       </c>
       <c r="D10">
-        <v>4.328018964123547</v>
+        <v>2.062183959717949</v>
       </c>
       <c r="E10">
-        <v>20.11216349655488</v>
+        <v>38.64481097652483</v>
       </c>
       <c r="F10">
-        <v>26.64487798257866</v>
+        <v>31.40945367825446</v>
       </c>
       <c r="G10">
-        <v>34.04822508425956</v>
+        <v>46.68327827619031</v>
       </c>
       <c r="H10">
-        <v>14.49099857716713</v>
+        <v>11.86823481380825</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>18.77277215515562</v>
+        <v>32.06267405453944</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.692102092442505</v>
+        <v>9.549501518568237</v>
       </c>
       <c r="D11">
-        <v>4.305331368372868</v>
+        <v>1.953635364303841</v>
       </c>
       <c r="E11">
-        <v>20.82353206773012</v>
+        <v>40.33675882187376</v>
       </c>
       <c r="F11">
-        <v>26.80970058468992</v>
+        <v>32.76602205463395</v>
       </c>
       <c r="G11">
-        <v>34.40464785571038</v>
+        <v>48.74349430091588</v>
       </c>
       <c r="H11">
-        <v>14.48251740359033</v>
+        <v>12.18448725870262</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>19.27211270608633</v>
+        <v>33.26380006583352</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.740281110487142</v>
+        <v>9.686297728243762</v>
       </c>
       <c r="D12">
-        <v>4.296859348277849</v>
+        <v>1.91274801814278</v>
       </c>
       <c r="E12">
-        <v>21.08696447370156</v>
+        <v>40.9748381020291</v>
       </c>
       <c r="F12">
-        <v>26.87392345287176</v>
+        <v>33.28114063113514</v>
       </c>
       <c r="G12">
-        <v>34.54195092691207</v>
+        <v>49.52811361375207</v>
       </c>
       <c r="H12">
-        <v>14.4801422925193</v>
+        <v>12.31067662175743</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>19.45810938600309</v>
+        <v>33.71220833998314</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.729929276039331</v>
+        <v>9.65690968757195</v>
       </c>
       <c r="D13">
-        <v>4.298678657700345</v>
+        <v>1.92154142233667</v>
       </c>
       <c r="E13">
-        <v>21.03049351563482</v>
+        <v>40.83750612333403</v>
       </c>
       <c r="F13">
-        <v>26.86001220946938</v>
+        <v>33.17012375734764</v>
       </c>
       <c r="G13">
-        <v>34.5122787590954</v>
+        <v>49.35891084406359</v>
       </c>
       <c r="H13">
-        <v>14.48061647536069</v>
+        <v>12.28151165328403</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>19.41819093961609</v>
+        <v>33.61591346477136</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.696076733980806</v>
+        <v>9.560789192380646</v>
       </c>
       <c r="D14">
-        <v>4.304631984446089</v>
+        <v>1.950266225084285</v>
       </c>
       <c r="E14">
-        <v>20.84532379348005</v>
+        <v>40.38929700508288</v>
       </c>
       <c r="F14">
-        <v>26.81494825781008</v>
+        <v>32.80836786691843</v>
       </c>
       <c r="G14">
-        <v>34.41589791680013</v>
+        <v>48.80794800857326</v>
       </c>
       <c r="H14">
-        <v>14.48230518778797</v>
+        <v>12.19459544769233</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>19.28747737025427</v>
+        <v>33.30081686903198</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.675270405735048</v>
+        <v>9.501694452174796</v>
       </c>
       <c r="D15">
-        <v>4.308294077786764</v>
+        <v>1.967894101493256</v>
       </c>
       <c r="E15">
-        <v>20.73112856050771</v>
+        <v>40.11446335351509</v>
       </c>
       <c r="F15">
-        <v>26.7875794348484</v>
+        <v>32.5869914928229</v>
       </c>
       <c r="G15">
-        <v>34.35716150938089</v>
+        <v>48.47108910401691</v>
       </c>
       <c r="H15">
-        <v>14.48344876686517</v>
+        <v>12.14190602735361</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>19.20700552000778</v>
+        <v>33.10698848515867</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.554987133248692</v>
+        <v>9.159574916454961</v>
       </c>
       <c r="D16">
-        <v>4.32951838940854</v>
+        <v>2.06930049942532</v>
       </c>
       <c r="E16">
-        <v>20.06483961127597</v>
+        <v>38.53378351583491</v>
       </c>
       <c r="F16">
-        <v>26.63436184087534</v>
+        <v>31.32095271556295</v>
       </c>
       <c r="G16">
-        <v>34.02526630191414</v>
+        <v>46.54919099602748</v>
       </c>
       <c r="H16">
-        <v>14.49166943014764</v>
+        <v>11.84812819100633</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>18.73971240533232</v>
+        <v>31.98325073217856</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.480296705338666</v>
+        <v>8.94646688019078</v>
       </c>
       <c r="D17">
-        <v>4.342752178229222</v>
+        <v>2.131756565222602</v>
       </c>
       <c r="E17">
-        <v>19.64546010490858</v>
+        <v>37.55773684859769</v>
       </c>
       <c r="F17">
-        <v>26.54363439276447</v>
+        <v>30.5459652052069</v>
       </c>
       <c r="G17">
-        <v>33.82596685421764</v>
+        <v>45.37676207290951</v>
       </c>
       <c r="H17">
-        <v>14.49819315396954</v>
+        <v>11.67493127096704</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>18.44765723767933</v>
+        <v>31.28190121678471</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.437021119347742</v>
+        <v>8.822657119818917</v>
       </c>
       <c r="D18">
-        <v>4.350442590225636</v>
+        <v>2.167740773813201</v>
       </c>
       <c r="E18">
-        <v>19.40032463661223</v>
+        <v>36.99354753191198</v>
       </c>
       <c r="F18">
-        <v>26.49266384808683</v>
+        <v>30.10061642836876</v>
       </c>
       <c r="G18">
-        <v>33.71296246979541</v>
+        <v>44.70448715114326</v>
       </c>
       <c r="H18">
-        <v>14.5024866422991</v>
+        <v>11.5777992699786</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>18.27773519877791</v>
+        <v>30.8739600375246</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.422316056848641</v>
+        <v>8.780520629571168</v>
       </c>
       <c r="D19">
-        <v>4.353059972669789</v>
+        <v>2.179932891984544</v>
       </c>
       <c r="E19">
-        <v>19.31665167285689</v>
+        <v>36.80200244220832</v>
       </c>
       <c r="F19">
-        <v>26.47561568478598</v>
+        <v>29.94988025468299</v>
       </c>
       <c r="G19">
-        <v>33.67498475310814</v>
+        <v>44.47719394408255</v>
       </c>
       <c r="H19">
-        <v>14.50403301476275</v>
+        <v>11.54533051517208</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>18.21987337824691</v>
+        <v>30.73504500022535</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.488280651570977</v>
+        <v>8.96927941737024</v>
       </c>
       <c r="D20">
-        <v>4.341335281354494</v>
+        <v>2.125101161416687</v>
       </c>
       <c r="E20">
-        <v>19.69050914970961</v>
+        <v>37.66191793722209</v>
       </c>
       <c r="F20">
-        <v>26.55316717601255</v>
+        <v>30.62841774577704</v>
       </c>
       <c r="G20">
-        <v>33.84701517805356</v>
+        <v>45.50134724379535</v>
       </c>
       <c r="H20">
-        <v>14.49744261194699</v>
+        <v>11.69310899421779</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>18.47894868816586</v>
+        <v>31.35702820968286</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.706034849372579</v>
+        <v>9.589067259980576</v>
       </c>
       <c r="D21">
-        <v>4.302880117529673</v>
+        <v>1.94182182366419</v>
       </c>
       <c r="E21">
-        <v>20.89987374584484</v>
+        <v>40.52100478041773</v>
       </c>
       <c r="F21">
-        <v>26.8281359178695</v>
+        <v>32.91457905678861</v>
       </c>
       <c r="G21">
-        <v>34.4441451191644</v>
+        <v>48.96964695619751</v>
       </c>
       <c r="H21">
-        <v>14.48178640108065</v>
+        <v>12.22000974061284</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>19.32595591572021</v>
+        <v>33.39353887299613</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.845226879203546</v>
+        <v>9.984234492512835</v>
       </c>
       <c r="D22">
-        <v>4.278442323150961</v>
+        <v>1.823434918371521</v>
       </c>
       <c r="E22">
-        <v>21.65561435974893</v>
+        <v>42.37521030806536</v>
       </c>
       <c r="F22">
-        <v>27.0183600753009</v>
+        <v>34.41747782797842</v>
       </c>
       <c r="G22">
-        <v>34.84793650686856</v>
+        <v>51.26321099432798</v>
       </c>
       <c r="H22">
-        <v>14.47643373549416</v>
+        <v>12.73195500862155</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>19.8614543507497</v>
+        <v>34.68730036069892</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.771237281426264</v>
+        <v>9.774173418476057</v>
       </c>
       <c r="D23">
-        <v>4.29142192822723</v>
+        <v>1.886429694544973</v>
       </c>
       <c r="E23">
-        <v>21.25541952971247</v>
+        <v>41.38632695315682</v>
       </c>
       <c r="F23">
-        <v>26.9158866979076</v>
+        <v>33.61425130855068</v>
       </c>
       <c r="G23">
-        <v>34.63123488784295</v>
+        <v>50.0361507005134</v>
       </c>
       <c r="H23">
-        <v>14.47884129607636</v>
+        <v>12.43393567213977</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>19.57733710042014</v>
+        <v>34.00002673300862</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.484672149520582</v>
+        <v>8.958969902301808</v>
       </c>
       <c r="D24">
-        <v>4.341975604548146</v>
+        <v>2.128109835351672</v>
       </c>
       <c r="E24">
-        <v>19.67015502756954</v>
+        <v>37.61482726437327</v>
       </c>
       <c r="F24">
-        <v>26.54885369543834</v>
+        <v>30.59114037398431</v>
       </c>
       <c r="G24">
-        <v>33.8374943129646</v>
+        <v>45.44501685593801</v>
       </c>
       <c r="H24">
-        <v>14.49778024162866</v>
+        <v>11.68488326423621</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.46480809230224</v>
+        <v>31.32307805017142</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.163737942608901</v>
+        <v>8.031948646176316</v>
       </c>
       <c r="D25">
-        <v>4.399518154319042</v>
+        <v>2.391272111663909</v>
       </c>
       <c r="E25">
-        <v>17.81018603093844</v>
+        <v>33.43610959008733</v>
       </c>
       <c r="F25">
-        <v>26.19945639577376</v>
+        <v>27.63296158653477</v>
       </c>
       <c r="G25">
-        <v>33.04402059477714</v>
+        <v>40.61383076218249</v>
       </c>
       <c r="H25">
-        <v>14.53885838887229</v>
+        <v>11.01895776709591</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.1912815158128</v>
+        <v>28.26058225332248</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.303452002613478</v>
+        <v>9.785362147594926</v>
       </c>
       <c r="D2">
-        <v>2.585993365746017</v>
+        <v>7.505957956219887</v>
       </c>
       <c r="E2">
-        <v>30.22093700489085</v>
+        <v>9.995807393623208</v>
       </c>
       <c r="F2">
-        <v>25.62811961990829</v>
+        <v>20.23208016943483</v>
       </c>
       <c r="G2">
-        <v>37.24334499524883</v>
+        <v>20.79134689857042</v>
       </c>
       <c r="H2">
-        <v>10.60005204274321</v>
+        <v>2.169326373321027</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.676486015069339</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>8.939923067030628</v>
       </c>
       <c r="K2">
-        <v>25.84105872310048</v>
+        <v>15.75414093645867</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.367425545274913</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>24.21491022526236</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.155819659148077</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>14.25449302630916</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.779031317183744</v>
+        <v>9.348394275012087</v>
       </c>
       <c r="D3">
-        <v>2.718759222961677</v>
+        <v>7.180420677278973</v>
       </c>
       <c r="E3">
-        <v>27.93864595418703</v>
+        <v>9.674323491178638</v>
       </c>
       <c r="F3">
-        <v>24.30803033681645</v>
+        <v>20.15089686299243</v>
       </c>
       <c r="G3">
-        <v>35.00233947234398</v>
+        <v>20.85836054746773</v>
       </c>
       <c r="H3">
-        <v>10.35639498493356</v>
+        <v>2.378823498620541</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.851431512452423</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.039452583665494</v>
       </c>
       <c r="K3">
-        <v>24.09292792655322</v>
+        <v>15.74630252154525</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.28691487701344</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>22.65317045411436</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.072470175868529</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>14.3945853200666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.441290652001396</v>
+        <v>9.065109619318259</v>
       </c>
       <c r="D4">
-        <v>2.800835927857182</v>
+        <v>6.973470509969933</v>
       </c>
       <c r="E4">
-        <v>26.48165583432997</v>
+        <v>9.470556953749497</v>
       </c>
       <c r="F4">
-        <v>23.51710004286051</v>
+        <v>20.11158408664046</v>
       </c>
       <c r="G4">
-        <v>33.64866862102105</v>
+        <v>20.91825168562375</v>
       </c>
       <c r="H4">
-        <v>10.22522255835299</v>
+        <v>2.512177174172447</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.963786896972834</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.104111924755291</v>
       </c>
       <c r="K4">
-        <v>22.9645279837828</v>
+        <v>15.74703119651928</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.23608752918886</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>21.63655737176491</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.021316409313884</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>14.48882961434453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.299618948540971</v>
+        <v>8.93622806726475</v>
       </c>
       <c r="D5">
-        <v>2.834451435277991</v>
+        <v>6.887922780659364</v>
       </c>
       <c r="E5">
-        <v>25.87331011789007</v>
+        <v>9.384319063193622</v>
       </c>
       <c r="F5">
-        <v>23.19989889567894</v>
+        <v>20.09179397636917</v>
       </c>
       <c r="G5">
-        <v>33.10300262058081</v>
+        <v>20.93714268599873</v>
       </c>
       <c r="H5">
-        <v>10.17618875558122</v>
+        <v>2.568086692320441</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.013782802142044</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.129800490842815</v>
       </c>
       <c r="K5">
-        <v>22.49065380431659</v>
+        <v>15.7427246844633</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.21412868142947</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>21.207635359293</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.001606228235342</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>14.52529162967658</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.275848237848821</v>
+        <v>8.902674625222176</v>
       </c>
       <c r="D6">
-        <v>2.840044316726317</v>
+        <v>6.874194746238947</v>
       </c>
       <c r="E6">
-        <v>25.77139550268116</v>
+        <v>9.367857536132963</v>
       </c>
       <c r="F6">
-        <v>23.14754290106384</v>
+        <v>20.08090075645199</v>
       </c>
       <c r="G6">
-        <v>33.01276889837425</v>
+        <v>20.92833374244584</v>
       </c>
       <c r="H6">
-        <v>10.16830721271273</v>
+        <v>2.577887086539822</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.025967778131123</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.132248624864404</v>
       </c>
       <c r="K6">
-        <v>22.41111386252479</v>
+        <v>15.73481050892957</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.209358511969349</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>21.13538147969895</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.999709437798161</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>14.52666551495924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.439396476723172</v>
+        <v>9.0312761481623</v>
       </c>
       <c r="D7">
-        <v>2.801288556630939</v>
+        <v>6.973871159360039</v>
       </c>
       <c r="E7">
-        <v>26.47351139785097</v>
+        <v>9.463862181157175</v>
       </c>
       <c r="F7">
-        <v>23.51280118688872</v>
+        <v>20.09015516330959</v>
       </c>
       <c r="G7">
-        <v>33.64128483864024</v>
+        <v>20.88511724767067</v>
       </c>
       <c r="H7">
-        <v>10.22454366597096</v>
+        <v>2.514117343902648</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.974562745057566</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.099350786450557</v>
       </c>
       <c r="K7">
-        <v>22.95819425443826</v>
+        <v>15.72709757915182</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.232801672254536</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>21.63041822010441</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.024788434044407</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>14.47619626504385</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.125848991838122</v>
+        <v>9.59755506140557</v>
       </c>
       <c r="D8">
-        <v>2.631671318913841</v>
+        <v>7.397168681236065</v>
       </c>
       <c r="E8">
-        <v>29.44516281170889</v>
+        <v>9.879302352583272</v>
       </c>
       <c r="F8">
-        <v>25.16896710523616</v>
+        <v>20.17410759210673</v>
       </c>
       <c r="G8">
-        <v>36.46617430156219</v>
+        <v>20.76622491298523</v>
       </c>
       <c r="H8">
-        <v>10.51208601513814</v>
+        <v>2.242079204719737</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.748884051209319</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.966735466908851</v>
       </c>
       <c r="K8">
-        <v>25.24959702890784</v>
+        <v>15.72406609843163</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.336101326070502</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>23.68788068397979</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.131956455545904</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>14.28362018915676</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.351053503289959</v>
+        <v>10.63928260473952</v>
       </c>
       <c r="D9">
-        <v>2.302466731094579</v>
+        <v>8.165169639334135</v>
       </c>
       <c r="E9">
-        <v>34.86266484527761</v>
+        <v>10.6496820321614</v>
       </c>
       <c r="F9">
-        <v>28.56909310239562</v>
+        <v>20.46288921218431</v>
       </c>
       <c r="G9">
-        <v>42.20496875503325</v>
+        <v>20.7525426920461</v>
       </c>
       <c r="H9">
-        <v>11.23158907874349</v>
+        <v>1.743360870841886</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.623910719147171</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>8.745114546418128</v>
       </c>
       <c r="K9">
-        <v>29.31691342637517</v>
+        <v>15.79938189616393</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.53251735043237</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>27.26645670000444</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.335388960658013</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13.99900995877252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.183728060748441</v>
+        <v>11.25708666223872</v>
       </c>
       <c r="D10">
-        <v>2.062183959717949</v>
+        <v>8.647917604079963</v>
       </c>
       <c r="E10">
-        <v>38.64481097652483</v>
+        <v>11.06895821315045</v>
       </c>
       <c r="F10">
-        <v>31.40945367825446</v>
+        <v>20.60208510832701</v>
       </c>
       <c r="G10">
-        <v>46.68327827619031</v>
+        <v>20.68187041311679</v>
       </c>
       <c r="H10">
-        <v>11.86823481380825</v>
+        <v>1.714212841985589</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.900801337857436</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>8.575424910646159</v>
       </c>
       <c r="K10">
-        <v>32.06267405453944</v>
+        <v>15.80012505788744</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.627385028201093</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>29.61732880997828</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.43246663459332</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.76939352923469</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.549501518568237</v>
+        <v>10.99854776853166</v>
       </c>
       <c r="D11">
-        <v>1.953635364303841</v>
+        <v>8.497689235474738</v>
       </c>
       <c r="E11">
-        <v>40.33675882187376</v>
+        <v>10.33430549391112</v>
       </c>
       <c r="F11">
-        <v>32.76602205463395</v>
+        <v>19.61103424522482</v>
       </c>
       <c r="G11">
-        <v>48.74349430091588</v>
+        <v>19.27272577664217</v>
       </c>
       <c r="H11">
-        <v>12.18448725870262</v>
+        <v>2.709165798742041</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.986058202396389</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.288797392632853</v>
       </c>
       <c r="K11">
-        <v>33.26380006583352</v>
+        <v>15.12658604929829</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.342655288314221</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>30.61179131824002</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.04584046632947</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.11753092040795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.686297728243762</v>
+        <v>10.6926300214922</v>
       </c>
       <c r="D12">
-        <v>1.91274801814278</v>
+        <v>8.264147620664234</v>
       </c>
       <c r="E12">
-        <v>40.9748381020291</v>
+        <v>9.658891987341022</v>
       </c>
       <c r="F12">
-        <v>33.28114063113514</v>
+        <v>18.76736249681452</v>
       </c>
       <c r="G12">
-        <v>49.52811361375207</v>
+        <v>18.13700887197677</v>
       </c>
       <c r="H12">
-        <v>12.31067662175743</v>
+        <v>4.039916493918224</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.999446838620284</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.091557905841189</v>
       </c>
       <c r="K12">
-        <v>33.71220833998314</v>
+        <v>14.58716314209354</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.129913764791865</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>30.97446636735064</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.734974428657419</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>12.63679256541597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.65690968757195</v>
+        <v>10.28405893436521</v>
       </c>
       <c r="D13">
-        <v>1.92154142233667</v>
+        <v>7.948667929723702</v>
       </c>
       <c r="E13">
-        <v>40.83750612333403</v>
+        <v>8.978287650549072</v>
       </c>
       <c r="F13">
-        <v>33.17012375734764</v>
+        <v>17.95290283294902</v>
       </c>
       <c r="G13">
-        <v>49.35891084406359</v>
+        <v>17.0934914384877</v>
       </c>
       <c r="H13">
-        <v>12.28151165328403</v>
+        <v>5.474869762896676</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.962394327929532</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.944707163647448</v>
       </c>
       <c r="K13">
-        <v>33.61591346477136</v>
+        <v>14.08928218640918</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.958655620821959</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>30.88484212511522</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.475207538800217</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.24205538171481</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.560789192380646</v>
+        <v>9.940396647047216</v>
       </c>
       <c r="D14">
-        <v>1.950266225084285</v>
+        <v>7.687662664046513</v>
       </c>
       <c r="E14">
-        <v>40.38929700508288</v>
+        <v>8.506478694500837</v>
       </c>
       <c r="F14">
-        <v>32.80836786691843</v>
+        <v>17.39648426085762</v>
       </c>
       <c r="G14">
-        <v>48.80794800857326</v>
+        <v>16.40960500575625</v>
       </c>
       <c r="H14">
-        <v>12.19459544769233</v>
+        <v>6.50016598486909</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.914795267552048</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7.865732100674627</v>
       </c>
       <c r="K14">
-        <v>33.30081686903198</v>
+        <v>13.75947865369579</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.865899749008581</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>30.61619416395862</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.328467298390519</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.00790727999152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.501694452174796</v>
+        <v>9.824141364785351</v>
       </c>
       <c r="D15">
-        <v>1.967894101493256</v>
+        <v>7.606950407120178</v>
       </c>
       <c r="E15">
-        <v>40.11446335351509</v>
+        <v>8.385906310191203</v>
       </c>
       <c r="F15">
-        <v>32.5869914928229</v>
+        <v>17.26298999961551</v>
       </c>
       <c r="G15">
-        <v>48.47108910401691</v>
+        <v>16.25659833337717</v>
       </c>
       <c r="H15">
-        <v>12.14190602735361</v>
+        <v>6.738033634873234</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.893405822830228</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>7.855942674401252</v>
       </c>
       <c r="K15">
-        <v>33.10698848515867</v>
+        <v>13.68284612832317</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.845971393650498</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>30.45274492282792</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.298620688380611</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.96625713861159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.159574916454961</v>
+        <v>9.610705327866324</v>
       </c>
       <c r="D16">
-        <v>2.06930049942532</v>
+        <v>7.453003139514405</v>
       </c>
       <c r="E16">
-        <v>38.53378351583491</v>
+        <v>8.322274519718102</v>
       </c>
       <c r="F16">
-        <v>31.32095271556295</v>
+        <v>17.35366392511432</v>
       </c>
       <c r="G16">
-        <v>46.54919099602748</v>
+        <v>16.48480599050036</v>
       </c>
       <c r="H16">
-        <v>11.84812819100633</v>
+        <v>6.533445737632124</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.784920676304036</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.958092976888303</v>
       </c>
       <c r="K16">
-        <v>31.98325073217856</v>
+        <v>13.77496157880067</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.836910128262547</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>29.50783580814488</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.309351741812639</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>12.14478123207061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.94646688019078</v>
+        <v>9.63267712609232</v>
       </c>
       <c r="D17">
-        <v>2.131756565222602</v>
+        <v>7.477755069237174</v>
       </c>
       <c r="E17">
-        <v>37.55773684859769</v>
+        <v>8.522061720241053</v>
       </c>
       <c r="F17">
-        <v>30.5459652052069</v>
+        <v>17.71685856284012</v>
       </c>
       <c r="G17">
-        <v>45.37676207290951</v>
+        <v>17.01505254665575</v>
       </c>
       <c r="H17">
-        <v>11.67493127096704</v>
+        <v>5.800628890254586</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.727123769214146</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.077036519903665</v>
       </c>
       <c r="K17">
-        <v>31.28190121678471</v>
+        <v>14.0178480799609</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.8741943499361</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>28.91623978541675</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.390106916830838</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>12.40183485353096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.822657119818917</v>
+        <v>9.885868938290498</v>
       </c>
       <c r="D18">
-        <v>2.167740773813201</v>
+        <v>7.658534610740585</v>
       </c>
       <c r="E18">
-        <v>36.99354753191198</v>
+        <v>9.003039720616188</v>
       </c>
       <c r="F18">
-        <v>30.10061642836876</v>
+        <v>18.37251551779587</v>
       </c>
       <c r="G18">
-        <v>44.70448715114326</v>
+        <v>17.89357750679751</v>
       </c>
       <c r="H18">
-        <v>11.5777992699786</v>
+        <v>4.552704293594918</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.704394215628096</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.229205443043055</v>
       </c>
       <c r="K18">
-        <v>30.8739600375246</v>
+        <v>14.43591507321281</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.98418690448182</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>28.57587654897445</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.569519447338583</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>12.76913127928955</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.780520629571168</v>
+        <v>10.25674194696111</v>
       </c>
       <c r="D19">
-        <v>2.179932891984544</v>
+        <v>7.95028700702808</v>
       </c>
       <c r="E19">
-        <v>36.80200244220832</v>
+        <v>9.699629154029257</v>
       </c>
       <c r="F19">
-        <v>29.94988025468299</v>
+        <v>19.19064739284162</v>
       </c>
       <c r="G19">
-        <v>44.47719394408255</v>
+        <v>18.95368714125049</v>
       </c>
       <c r="H19">
-        <v>11.54533051517208</v>
+        <v>3.073752627499131</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.723003674501578</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.393538072931999</v>
       </c>
       <c r="K19">
-        <v>30.73504500022535</v>
+        <v>14.94219567748872</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.179786128691377</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>28.46767983447829</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.859715673365998</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>13.18909209653775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.96927941737024</v>
+        <v>11.0141307763219</v>
       </c>
       <c r="D20">
-        <v>2.125101161416687</v>
+        <v>8.525797827299625</v>
       </c>
       <c r="E20">
-        <v>37.66191793722209</v>
+        <v>10.9412157471935</v>
       </c>
       <c r="F20">
-        <v>30.62841774577704</v>
+        <v>20.4929603960093</v>
       </c>
       <c r="G20">
-        <v>45.50134724379535</v>
+        <v>20.58269046342137</v>
       </c>
       <c r="H20">
-        <v>11.69310899421779</v>
+        <v>1.623484473600975</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.8390385425916</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>8.60164785203804</v>
       </c>
       <c r="K20">
-        <v>31.35702820968286</v>
+        <v>15.73391988949306</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.592648298024398</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>29.01740423914186</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.415503351984868</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.78234037797491</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.589067259980576</v>
+        <v>11.57211604226833</v>
       </c>
       <c r="D21">
-        <v>1.94182182366419</v>
+        <v>8.947162034643586</v>
       </c>
       <c r="E21">
-        <v>40.52100478041773</v>
+        <v>11.42230810581358</v>
       </c>
       <c r="F21">
-        <v>32.91457905678861</v>
+        <v>20.81840157997814</v>
       </c>
       <c r="G21">
-        <v>48.96964695619751</v>
+        <v>20.83238573029683</v>
       </c>
       <c r="H21">
-        <v>12.22000974061284</v>
+        <v>1.881070899810098</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.052681097305471</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.518541733544049</v>
       </c>
       <c r="K21">
-        <v>33.39353887299613</v>
+        <v>15.87495076134069</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.728355344201507</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>30.73787385899208</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.570403811373573</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13.72849800606589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.984234492512835</v>
+        <v>11.92503611276876</v>
       </c>
       <c r="D22">
-        <v>1.823434918371521</v>
+        <v>9.191301202052621</v>
       </c>
       <c r="E22">
-        <v>42.37521030806536</v>
+        <v>11.67959039663641</v>
       </c>
       <c r="F22">
-        <v>34.41747782797842</v>
+        <v>21.0070999987571</v>
       </c>
       <c r="G22">
-        <v>51.26321099432798</v>
+        <v>20.9826058160478</v>
       </c>
       <c r="H22">
-        <v>12.73195500862155</v>
+        <v>2.043858779703345</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.183626585550239</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.462994640983776</v>
       </c>
       <c r="K22">
-        <v>34.68730036069892</v>
+        <v>15.95995329820559</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.798206261517119</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>31.81236249416105</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.639403455496357</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>13.68976257314298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.774173418476057</v>
+        <v>11.76798399367183</v>
       </c>
       <c r="D23">
-        <v>1.886429694544973</v>
+        <v>9.060320244919266</v>
       </c>
       <c r="E23">
-        <v>41.38632695315682</v>
+        <v>11.54836696465919</v>
       </c>
       <c r="F23">
-        <v>33.61425130855068</v>
+        <v>20.92896978475597</v>
       </c>
       <c r="G23">
-        <v>50.0361507005134</v>
+        <v>20.93872635937789</v>
       </c>
       <c r="H23">
-        <v>12.43393567213977</v>
+        <v>1.958377257821341</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.110236519776738</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.498337603750814</v>
       </c>
       <c r="K23">
-        <v>34.00002673300862</v>
+        <v>15.93679509670587</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.764205637916144</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>31.24377107450101</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.598480535696524</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>13.72510698169234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.958969902301808</v>
+        <v>11.09820545998573</v>
       </c>
       <c r="D24">
-        <v>2.128109835351672</v>
+        <v>8.550241345370337</v>
       </c>
       <c r="E24">
-        <v>37.61482726437327</v>
+        <v>11.02832332249284</v>
       </c>
       <c r="F24">
-        <v>30.59114037398431</v>
+        <v>20.61959940681906</v>
       </c>
       <c r="G24">
-        <v>45.44501685593801</v>
+        <v>20.76247446088355</v>
       </c>
       <c r="H24">
-        <v>11.68488326423621</v>
+        <v>1.626072653677958</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.832898809038578</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>8.631227202142991</v>
       </c>
       <c r="K24">
-        <v>31.32307805017142</v>
+        <v>15.82667104797071</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.627808640040021</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>28.99055090729431</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.449357571078199</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.8566046341743</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.031948646176316</v>
+        <v>10.31976156355753</v>
       </c>
       <c r="D25">
-        <v>2.391272111663909</v>
+        <v>7.966659685625799</v>
       </c>
       <c r="E25">
-        <v>33.43610959008733</v>
+        <v>10.43835693799227</v>
       </c>
       <c r="F25">
-        <v>27.63296158653477</v>
+        <v>20.33770062201802</v>
       </c>
       <c r="G25">
-        <v>40.61383076218249</v>
+        <v>20.67745583116667</v>
       </c>
       <c r="H25">
-        <v>11.01895776709591</v>
+        <v>1.876345857589136</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.523664473405568</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>8.792509586971935</v>
       </c>
       <c r="K25">
-        <v>28.26058225332248</v>
+        <v>15.73831348424904</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.475539442021648</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>26.34642303933534</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.286957579088359</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>14.04405681414534</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_39/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.785362147594926</v>
+        <v>8.773316549338052</v>
       </c>
       <c r="D2">
-        <v>7.505957956219887</v>
+        <v>7.54615044295866</v>
       </c>
       <c r="E2">
-        <v>9.995807393623208</v>
+        <v>9.841783965313917</v>
       </c>
       <c r="F2">
-        <v>20.23208016943483</v>
+        <v>19.58961357329171</v>
       </c>
       <c r="G2">
-        <v>20.79134689857042</v>
+        <v>19.20665791108012</v>
       </c>
       <c r="H2">
-        <v>2.169326373321027</v>
+        <v>2.100902846826584</v>
       </c>
       <c r="I2">
-        <v>2.676486015069339</v>
+        <v>2.577761647897411</v>
       </c>
       <c r="J2">
-        <v>8.939923067030628</v>
+        <v>9.100798579837841</v>
       </c>
       <c r="K2">
-        <v>15.75414093645867</v>
+        <v>15.04558255378368</v>
       </c>
       <c r="L2">
-        <v>6.367425545274913</v>
+        <v>12.75020324903717</v>
       </c>
       <c r="M2">
-        <v>24.21491022526236</v>
+        <v>9.553269873152802</v>
       </c>
       <c r="N2">
-        <v>6.155819659148077</v>
+        <v>6.261979883742313</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>24.23280157483469</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.35970366626387</v>
       </c>
       <c r="Q2">
-        <v>14.25449302630916</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>13.8091883546696</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>9.348394275012087</v>
+        <v>8.405697895430775</v>
       </c>
       <c r="D3">
-        <v>7.180420677278973</v>
+        <v>7.218622373435787</v>
       </c>
       <c r="E3">
-        <v>9.674323491178638</v>
+        <v>9.538383202090968</v>
       </c>
       <c r="F3">
-        <v>20.15089686299243</v>
+        <v>19.56286658127015</v>
       </c>
       <c r="G3">
-        <v>20.85836054746773</v>
+        <v>19.40673715949903</v>
       </c>
       <c r="H3">
-        <v>2.378823498620541</v>
+        <v>2.294135268714323</v>
       </c>
       <c r="I3">
-        <v>2.851431512452423</v>
+        <v>2.731159418658121</v>
       </c>
       <c r="J3">
-        <v>9.039452583665494</v>
+        <v>9.171573225924924</v>
       </c>
       <c r="K3">
-        <v>15.74630252154525</v>
+        <v>15.0815058384237</v>
       </c>
       <c r="L3">
-        <v>6.28691487701344</v>
+        <v>12.869878194516</v>
       </c>
       <c r="M3">
-        <v>22.65317045411436</v>
+        <v>9.496876687631211</v>
       </c>
       <c r="N3">
-        <v>6.072470175868529</v>
+        <v>6.189687038717877</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>22.67703204156117</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.274699236655774</v>
       </c>
       <c r="Q3">
-        <v>14.3945853200666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>13.97779472434443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>9.065109619318259</v>
+        <v>8.165640385432457</v>
       </c>
       <c r="D4">
-        <v>6.973470509969933</v>
+        <v>7.010466771001679</v>
       </c>
       <c r="E4">
-        <v>9.470556953749497</v>
+        <v>9.345943556533582</v>
       </c>
       <c r="F4">
-        <v>20.11158408664046</v>
+        <v>19.55548035541425</v>
       </c>
       <c r="G4">
-        <v>20.91825168562375</v>
+        <v>19.54912736272234</v>
       </c>
       <c r="H4">
-        <v>2.512177174172447</v>
+        <v>2.417197997943796</v>
       </c>
       <c r="I4">
-        <v>2.963786896972834</v>
+        <v>2.830074167550583</v>
       </c>
       <c r="J4">
-        <v>9.104111924755291</v>
+        <v>9.216873933864191</v>
       </c>
       <c r="K4">
-        <v>15.74703119651928</v>
+        <v>15.10743886708491</v>
       </c>
       <c r="L4">
-        <v>6.23608752918886</v>
+        <v>12.94378036761113</v>
       </c>
       <c r="M4">
-        <v>21.63655737176491</v>
+        <v>9.483703820100631</v>
       </c>
       <c r="N4">
-        <v>6.021316409313884</v>
+        <v>6.143886495879519</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>21.66437834799727</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.222996128377107</v>
       </c>
       <c r="Q4">
-        <v>14.48882961434453</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.08810221417405</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8.93622806726475</v>
+        <v>8.054601319929397</v>
       </c>
       <c r="D5">
-        <v>6.887922780659364</v>
+        <v>6.924433250242296</v>
       </c>
       <c r="E5">
-        <v>9.384319063193622</v>
+        <v>9.264409611130928</v>
       </c>
       <c r="F5">
-        <v>20.09179397636917</v>
+        <v>19.54851974736497</v>
       </c>
       <c r="G5">
-        <v>20.93714268599873</v>
+        <v>19.60213922575465</v>
       </c>
       <c r="H5">
-        <v>2.568086692320441</v>
+        <v>2.468817057258525</v>
       </c>
       <c r="I5">
-        <v>3.013782802142044</v>
+        <v>2.875044138200722</v>
       </c>
       <c r="J5">
-        <v>9.129800490842815</v>
+        <v>9.234285107584636</v>
       </c>
       <c r="K5">
-        <v>15.7427246844633</v>
+        <v>15.11327196970373</v>
       </c>
       <c r="L5">
-        <v>6.21412868142947</v>
+        <v>12.96885748176251</v>
       </c>
       <c r="M5">
-        <v>21.207635359293</v>
+        <v>9.480321032537274</v>
       </c>
       <c r="N5">
-        <v>6.001606228235342</v>
+        <v>6.124007480725746</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>21.23716041991201</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.203186624647206</v>
       </c>
       <c r="Q5">
-        <v>14.52529162967658</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.13095833983084</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8.902674625222176</v>
+        <v>8.024167691493055</v>
       </c>
       <c r="D6">
-        <v>6.874194746238947</v>
+        <v>6.910621036014808</v>
       </c>
       <c r="E6">
-        <v>9.367857536132963</v>
+        <v>9.248779901695995</v>
       </c>
       <c r="F6">
-        <v>20.08090075645199</v>
+        <v>19.53998067680093</v>
       </c>
       <c r="G6">
-        <v>20.92833374244584</v>
+        <v>19.59945439318956</v>
       </c>
       <c r="H6">
-        <v>2.577887086539822</v>
+        <v>2.477877963880755</v>
       </c>
       <c r="I6">
-        <v>3.025967778131123</v>
+        <v>2.887060768967254</v>
       </c>
       <c r="J6">
-        <v>9.132248624864404</v>
+        <v>9.235363954933737</v>
       </c>
       <c r="K6">
-        <v>15.73481050892957</v>
+        <v>15.10736399465278</v>
       </c>
       <c r="L6">
-        <v>6.209358511969349</v>
+        <v>12.96674810250238</v>
       </c>
       <c r="M6">
-        <v>21.13538147969895</v>
+        <v>9.475917136489169</v>
       </c>
       <c r="N6">
-        <v>5.999709437798161</v>
+        <v>6.119629017395069</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>21.16520167012489</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.201286229964441</v>
       </c>
       <c r="Q6">
-        <v>14.52666551495924</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.133609879922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.0312761481623</v>
+        <v>8.136669742706113</v>
       </c>
       <c r="D7">
-        <v>6.973871159360039</v>
+        <v>7.014427681581525</v>
       </c>
       <c r="E7">
-        <v>9.463862181157175</v>
+        <v>9.340669597094148</v>
       </c>
       <c r="F7">
-        <v>20.09015516330959</v>
+        <v>19.5236087577554</v>
       </c>
       <c r="G7">
-        <v>20.88511724767067</v>
+        <v>19.57857176770887</v>
       </c>
       <c r="H7">
-        <v>2.514117343902648</v>
+        <v>2.419510077146264</v>
       </c>
       <c r="I7">
-        <v>2.974562745057566</v>
+        <v>2.843013119375092</v>
       </c>
       <c r="J7">
-        <v>9.099350786450557</v>
+        <v>9.185953727225822</v>
       </c>
       <c r="K7">
-        <v>15.72709757915182</v>
+        <v>15.08158222763171</v>
       </c>
       <c r="L7">
-        <v>6.232801672254536</v>
+        <v>12.92118333444403</v>
       </c>
       <c r="M7">
-        <v>21.63041822010441</v>
+        <v>9.467335774059224</v>
       </c>
       <c r="N7">
-        <v>6.024788434044407</v>
+        <v>6.140419254543721</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>21.65803521011029</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.226285999402643</v>
       </c>
       <c r="Q7">
-        <v>14.47619626504385</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.06870752160103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>9.59755506140557</v>
+        <v>8.623174154010691</v>
       </c>
       <c r="D8">
-        <v>7.397168681236065</v>
+        <v>7.447952000251489</v>
       </c>
       <c r="E8">
-        <v>9.879302352583272</v>
+        <v>9.735623075371542</v>
       </c>
       <c r="F8">
-        <v>20.17410759210673</v>
+        <v>19.51451209597449</v>
       </c>
       <c r="G8">
-        <v>20.76622491298523</v>
+        <v>19.43509080087674</v>
       </c>
       <c r="H8">
-        <v>2.242079204719737</v>
+        <v>2.169527059173792</v>
       </c>
       <c r="I8">
-        <v>2.748884051209319</v>
+        <v>2.646480403858454</v>
       </c>
       <c r="J8">
-        <v>8.966735466908851</v>
+        <v>9.033179280841727</v>
       </c>
       <c r="K8">
-        <v>15.72406609843163</v>
+        <v>15.00927444015791</v>
       </c>
       <c r="L8">
-        <v>6.336101326070502</v>
+        <v>12.75199563253087</v>
       </c>
       <c r="M8">
-        <v>23.68788068397979</v>
+        <v>9.495538238435227</v>
       </c>
       <c r="N8">
-        <v>6.131956455545904</v>
+        <v>6.232616412214242</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>23.70707420540496</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.334592713533947</v>
       </c>
       <c r="Q8">
-        <v>14.28362018915676</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>13.82449611367747</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.63928260473952</v>
+        <v>9.498967568249347</v>
       </c>
       <c r="D9">
-        <v>8.165169639334135</v>
+        <v>8.222732700092457</v>
       </c>
       <c r="E9">
-        <v>10.6496820321614</v>
+        <v>10.46308262016549</v>
       </c>
       <c r="F9">
-        <v>20.46288921218431</v>
+        <v>19.64925543725031</v>
       </c>
       <c r="G9">
-        <v>20.7525426920461</v>
+        <v>19.15692409749774</v>
       </c>
       <c r="H9">
-        <v>1.743360870841886</v>
+        <v>1.710081782546203</v>
       </c>
       <c r="I9">
-        <v>2.623910719147171</v>
+        <v>2.681792160336129</v>
       </c>
       <c r="J9">
-        <v>8.745114546418128</v>
+        <v>8.848660431901347</v>
       </c>
       <c r="K9">
-        <v>15.79938189616393</v>
+        <v>14.95890270818897</v>
       </c>
       <c r="L9">
-        <v>6.53251735043237</v>
+        <v>12.47287258878314</v>
       </c>
       <c r="M9">
-        <v>27.26645670000444</v>
+        <v>9.760674339628324</v>
       </c>
       <c r="N9">
-        <v>6.335388960658013</v>
+        <v>6.408176529350696</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>27.27187760407248</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.54447746691134</v>
       </c>
       <c r="Q9">
-        <v>13.99900995877252</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.45200605666585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>11.25708666223872</v>
+        <v>10.03387468177051</v>
       </c>
       <c r="D10">
-        <v>8.647917604079963</v>
+        <v>8.72673782790792</v>
       </c>
       <c r="E10">
-        <v>11.06895821315045</v>
+        <v>10.86162190145002</v>
       </c>
       <c r="F10">
-        <v>20.60208510832701</v>
+        <v>19.61785991780445</v>
       </c>
       <c r="G10">
-        <v>20.68187041311679</v>
+        <v>19.29356819286051</v>
       </c>
       <c r="H10">
-        <v>1.714212841985589</v>
+        <v>1.718288816492778</v>
       </c>
       <c r="I10">
-        <v>2.900801337857436</v>
+        <v>2.92422468904417</v>
       </c>
       <c r="J10">
-        <v>8.575424910646159</v>
+        <v>8.560545183844175</v>
       </c>
       <c r="K10">
-        <v>15.80012505788744</v>
+        <v>14.83211618152377</v>
       </c>
       <c r="L10">
-        <v>6.627385028201093</v>
+        <v>12.1917013937134</v>
       </c>
       <c r="M10">
-        <v>29.61732880997828</v>
+        <v>9.960065826141935</v>
       </c>
       <c r="N10">
-        <v>6.43246663459332</v>
+        <v>6.489310196760704</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>29.61255042036173</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>6.643995104275109</v>
       </c>
       <c r="Q10">
-        <v>13.76939352923469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.11444585431087</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>10.99854776853166</v>
+        <v>9.878906827639858</v>
       </c>
       <c r="D11">
-        <v>8.497689235474738</v>
+        <v>8.609560407470394</v>
       </c>
       <c r="E11">
-        <v>10.33430549391112</v>
+        <v>10.15214138561626</v>
       </c>
       <c r="F11">
-        <v>19.61103424522482</v>
+        <v>18.54878763446784</v>
       </c>
       <c r="G11">
-        <v>19.27272577664217</v>
+        <v>18.7416388571823</v>
       </c>
       <c r="H11">
-        <v>2.709165798742041</v>
+        <v>2.704937732094656</v>
       </c>
       <c r="I11">
-        <v>2.986058202396389</v>
+        <v>2.998913759095918</v>
       </c>
       <c r="J11">
-        <v>8.288797392632853</v>
+        <v>8.100586896248009</v>
       </c>
       <c r="K11">
-        <v>15.12658604929829</v>
+        <v>14.14328350005538</v>
       </c>
       <c r="L11">
-        <v>6.342655288314221</v>
+        <v>11.638326447042</v>
       </c>
       <c r="M11">
-        <v>30.61179131824002</v>
+        <v>9.520334816677094</v>
       </c>
       <c r="N11">
-        <v>6.04584046632947</v>
+        <v>6.223340049948926</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>30.60284955092929</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.226846984952625</v>
       </c>
       <c r="Q11">
-        <v>13.11753092040795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>12.42485995079138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>10.6926300214922</v>
+        <v>9.664617039919317</v>
       </c>
       <c r="D12">
-        <v>8.264147620664234</v>
+        <v>8.388706772708353</v>
       </c>
       <c r="E12">
-        <v>9.658891987341022</v>
+        <v>9.497802831444622</v>
       </c>
       <c r="F12">
-        <v>18.76736249681452</v>
+        <v>17.71983725022025</v>
       </c>
       <c r="G12">
-        <v>18.13700887197677</v>
+        <v>18.03022225689138</v>
       </c>
       <c r="H12">
-        <v>4.039916493918224</v>
+        <v>4.03613376444475</v>
       </c>
       <c r="I12">
-        <v>2.999446838620284</v>
+        <v>3.00948665805175</v>
       </c>
       <c r="J12">
-        <v>8.091557905841189</v>
+        <v>7.903242887081766</v>
       </c>
       <c r="K12">
-        <v>14.58716314209354</v>
+        <v>13.6460373292179</v>
       </c>
       <c r="L12">
-        <v>6.129913764791865</v>
+        <v>11.28287223546672</v>
       </c>
       <c r="M12">
-        <v>30.97446636735064</v>
+        <v>9.139448319931338</v>
       </c>
       <c r="N12">
-        <v>5.734974428657419</v>
+        <v>6.030881217935277</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>30.96459185936627</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.888133235603319</v>
       </c>
       <c r="Q12">
-        <v>12.63679256541597</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>11.9685346758302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>10.28405893436521</v>
+        <v>9.338859044990352</v>
       </c>
       <c r="D13">
-        <v>7.948667929723702</v>
+        <v>8.063876549790415</v>
       </c>
       <c r="E13">
-        <v>8.978287650549072</v>
+        <v>8.835033773149199</v>
       </c>
       <c r="F13">
-        <v>17.95290283294902</v>
+        <v>17.01684648984981</v>
       </c>
       <c r="G13">
-        <v>17.0934914384877</v>
+        <v>16.93403531412061</v>
       </c>
       <c r="H13">
-        <v>5.474869762896676</v>
+        <v>5.476065672918934</v>
       </c>
       <c r="I13">
-        <v>2.962394327929532</v>
+        <v>2.977662109561359</v>
       </c>
       <c r="J13">
-        <v>7.944707163647448</v>
+        <v>7.859427828621625</v>
       </c>
       <c r="K13">
-        <v>14.08928218640918</v>
+        <v>13.25125965701962</v>
       </c>
       <c r="L13">
-        <v>5.958655620821959</v>
+        <v>11.03367384046018</v>
       </c>
       <c r="M13">
-        <v>30.88484212511522</v>
+        <v>8.774502977218898</v>
       </c>
       <c r="N13">
-        <v>5.475207538800217</v>
+        <v>5.881695764902853</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>30.87675921383803</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.60233229319217</v>
       </c>
       <c r="Q13">
-        <v>12.24205538171481</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>11.66043861243246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.940396647047216</v>
+        <v>9.050590191188538</v>
       </c>
       <c r="D14">
-        <v>7.687662664046513</v>
+        <v>7.786754647560769</v>
       </c>
       <c r="E14">
-        <v>8.506478694500837</v>
+        <v>8.375196435262565</v>
       </c>
       <c r="F14">
-        <v>17.39648426085762</v>
+        <v>16.57769187354293</v>
       </c>
       <c r="G14">
-        <v>16.40960500575625</v>
+        <v>16.01976511855923</v>
       </c>
       <c r="H14">
-        <v>6.50016598486909</v>
+        <v>6.499669280223013</v>
       </c>
       <c r="I14">
-        <v>2.914795267552048</v>
+        <v>2.937656980410036</v>
       </c>
       <c r="J14">
-        <v>7.865732100674627</v>
+        <v>7.878910552119001</v>
       </c>
       <c r="K14">
-        <v>13.75947865369579</v>
+        <v>13.017184302937</v>
       </c>
       <c r="L14">
-        <v>5.865899749008581</v>
+        <v>10.89944830451152</v>
       </c>
       <c r="M14">
-        <v>30.61619416395862</v>
+        <v>8.526623455261078</v>
       </c>
       <c r="N14">
-        <v>5.328467298390519</v>
+        <v>5.804314816116057</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>30.61056320129624</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.438907423363376</v>
       </c>
       <c r="Q14">
-        <v>12.00790727999152</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>11.50937004007757</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.824141364785351</v>
+        <v>8.947110407539901</v>
       </c>
       <c r="D15">
-        <v>7.606950407120178</v>
+        <v>7.698077117941583</v>
       </c>
       <c r="E15">
-        <v>8.385906310191203</v>
+        <v>8.257452801817387</v>
       </c>
       <c r="F15">
-        <v>17.26298999961551</v>
+        <v>16.48911144516453</v>
       </c>
       <c r="G15">
-        <v>16.25659833337717</v>
+        <v>15.73483167915087</v>
       </c>
       <c r="H15">
-        <v>6.738033634873234</v>
+        <v>6.736820534787611</v>
       </c>
       <c r="I15">
-        <v>2.893405822830228</v>
+        <v>2.920375834751</v>
       </c>
       <c r="J15">
-        <v>7.855942674401252</v>
+        <v>7.905335454684441</v>
       </c>
       <c r="K15">
-        <v>13.68284612832317</v>
+        <v>12.97397281160327</v>
       </c>
       <c r="L15">
-        <v>5.845971393650498</v>
+        <v>10.88045898396587</v>
       </c>
       <c r="M15">
-        <v>30.45274492282792</v>
+        <v>8.466181438780374</v>
       </c>
       <c r="N15">
-        <v>5.298620688380611</v>
+        <v>5.78821176610897</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>30.44829275979129</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.405921119232448</v>
       </c>
       <c r="Q15">
-        <v>11.96625713861159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>11.4973139553612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.610705327866324</v>
+        <v>8.725978568775631</v>
       </c>
       <c r="D16">
-        <v>7.453003139514405</v>
+        <v>7.510898967264218</v>
       </c>
       <c r="E16">
-        <v>8.322274519718102</v>
+        <v>8.192622528193347</v>
       </c>
       <c r="F16">
-        <v>17.35366392511432</v>
+        <v>16.71375384837776</v>
       </c>
       <c r="G16">
-        <v>16.48480599050036</v>
+        <v>15.36822580430612</v>
       </c>
       <c r="H16">
-        <v>6.533445737632124</v>
+        <v>6.528367042232558</v>
       </c>
       <c r="I16">
-        <v>2.784920676304036</v>
+        <v>2.829003144595891</v>
       </c>
       <c r="J16">
-        <v>7.958092976888303</v>
+        <v>8.133155345296879</v>
       </c>
       <c r="K16">
-        <v>13.77496157880067</v>
+        <v>13.14706665827794</v>
       </c>
       <c r="L16">
-        <v>5.836910128262547</v>
+        <v>11.04155748890031</v>
       </c>
       <c r="M16">
-        <v>29.50783580814488</v>
+        <v>8.505924350635363</v>
       </c>
       <c r="N16">
-        <v>5.309351741812639</v>
+        <v>5.780248536657258</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>29.50872655701437</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.424620570722938</v>
       </c>
       <c r="Q16">
-        <v>12.14478123207061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>11.75248749786643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>9.63267712609232</v>
+        <v>8.716605279502591</v>
       </c>
       <c r="D17">
-        <v>7.477755069237174</v>
+        <v>7.523094920963755</v>
       </c>
       <c r="E17">
-        <v>8.522061720241053</v>
+        <v>8.385285717308431</v>
       </c>
       <c r="F17">
-        <v>17.71685856284012</v>
+        <v>17.10650394986877</v>
       </c>
       <c r="G17">
-        <v>17.01505254665575</v>
+        <v>15.64218024953524</v>
       </c>
       <c r="H17">
-        <v>5.800628890254586</v>
+        <v>5.792480989918246</v>
       </c>
       <c r="I17">
-        <v>2.727123769214146</v>
+        <v>2.779973485541039</v>
       </c>
       <c r="J17">
-        <v>8.077036519903665</v>
+        <v>8.303402839433739</v>
       </c>
       <c r="K17">
-        <v>14.0178480799609</v>
+        <v>13.39632541361317</v>
       </c>
       <c r="L17">
-        <v>5.8741943499361</v>
+        <v>11.24024809272597</v>
       </c>
       <c r="M17">
-        <v>28.91623978541675</v>
+        <v>8.656837384220008</v>
       </c>
       <c r="N17">
-        <v>5.390106916830838</v>
+        <v>5.810831681923408</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>28.91972845022809</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.519506538972624</v>
       </c>
       <c r="Q17">
-        <v>12.40183485353096</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.02056814294585</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>9.885868938290498</v>
+        <v>8.906455345872526</v>
       </c>
       <c r="D18">
-        <v>7.658534610740585</v>
+        <v>7.701301265447355</v>
       </c>
       <c r="E18">
-        <v>9.003039720616188</v>
+        <v>8.851281361306887</v>
       </c>
       <c r="F18">
-        <v>18.37251551779587</v>
+        <v>17.72868397948952</v>
       </c>
       <c r="G18">
-        <v>17.89357750679751</v>
+        <v>16.35859479755305</v>
       </c>
       <c r="H18">
-        <v>4.552704293594918</v>
+        <v>4.541414219478108</v>
       </c>
       <c r="I18">
-        <v>2.704394215628096</v>
+        <v>2.75887572313399</v>
       </c>
       <c r="J18">
-        <v>8.229205443043055</v>
+        <v>8.463459655418735</v>
       </c>
       <c r="K18">
-        <v>14.43591507321281</v>
+        <v>13.77067747801082</v>
       </c>
       <c r="L18">
-        <v>5.98418690448182</v>
+        <v>11.51985812560629</v>
       </c>
       <c r="M18">
-        <v>28.57587654897445</v>
+        <v>8.937355125971012</v>
       </c>
       <c r="N18">
-        <v>5.569519447338583</v>
+        <v>5.906443734399522</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>28.58009657235976</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.719752419908956</v>
       </c>
       <c r="Q18">
-        <v>12.76913127928955</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.35835982128892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>10.25674194696111</v>
+        <v>9.192203649221181</v>
       </c>
       <c r="D19">
-        <v>7.95028700702808</v>
+        <v>7.995959141212277</v>
       </c>
       <c r="E19">
-        <v>9.699629154029257</v>
+        <v>9.527666820983052</v>
       </c>
       <c r="F19">
-        <v>19.19064739284162</v>
+        <v>18.47513464511608</v>
       </c>
       <c r="G19">
-        <v>18.95368714125049</v>
+        <v>17.29102466353687</v>
       </c>
       <c r="H19">
-        <v>3.073752627499131</v>
+        <v>3.058648165333776</v>
       </c>
       <c r="I19">
-        <v>2.723003674501578</v>
+        <v>2.775712991469415</v>
       </c>
       <c r="J19">
-        <v>8.393538072931999</v>
+        <v>8.610560157193415</v>
       </c>
       <c r="K19">
-        <v>14.94219567748872</v>
+        <v>14.20274994745515</v>
       </c>
       <c r="L19">
-        <v>6.179786128691377</v>
+        <v>11.83344765951303</v>
       </c>
       <c r="M19">
-        <v>28.46767983447829</v>
+        <v>9.285412571790125</v>
       </c>
       <c r="N19">
-        <v>5.859715673365998</v>
+        <v>6.082178392248286</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>28.47115115135399</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.034950479114751</v>
       </c>
       <c r="Q19">
-        <v>13.18909209653775</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>12.72420597328947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.0141307763219</v>
+        <v>9.80401430923167</v>
       </c>
       <c r="D20">
-        <v>8.525797827299625</v>
+        <v>8.588396010285772</v>
       </c>
       <c r="E20">
-        <v>10.9412157471935</v>
+        <v>10.73575038287754</v>
       </c>
       <c r="F20">
-        <v>20.4929603960093</v>
+        <v>19.59616371090867</v>
       </c>
       <c r="G20">
-        <v>20.58269046342137</v>
+        <v>18.90962864867704</v>
       </c>
       <c r="H20">
-        <v>1.623484473600975</v>
+        <v>1.636406100710895</v>
       </c>
       <c r="I20">
-        <v>2.8390385425916</v>
+        <v>2.876205037981733</v>
       </c>
       <c r="J20">
-        <v>8.60164785203804</v>
+        <v>8.706868759319036</v>
       </c>
       <c r="K20">
-        <v>15.73391988949306</v>
+        <v>14.82909900773319</v>
       </c>
       <c r="L20">
-        <v>6.592648298024398</v>
+        <v>12.23981209362257</v>
       </c>
       <c r="M20">
-        <v>29.01740423914186</v>
+        <v>9.873412195574735</v>
       </c>
       <c r="N20">
-        <v>6.415503351984868</v>
+        <v>6.459754126531172</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>29.015982868399</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>6.627010903490452</v>
       </c>
       <c r="Q20">
-        <v>13.78234037797491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.18703621054538</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>11.57211604226833</v>
+        <v>10.34418491401277</v>
       </c>
       <c r="D21">
-        <v>8.947162034643586</v>
+        <v>9.081865491252456</v>
       </c>
       <c r="E21">
-        <v>11.42230810581358</v>
+        <v>11.21838817578092</v>
       </c>
       <c r="F21">
-        <v>20.81840157997814</v>
+        <v>19.56421370051115</v>
       </c>
       <c r="G21">
-        <v>20.83238573029683</v>
+        <v>20.56437914474376</v>
       </c>
       <c r="H21">
-        <v>1.881070899810098</v>
+        <v>1.865448721282929</v>
       </c>
       <c r="I21">
-        <v>3.052681097305471</v>
+        <v>3.056416540315774</v>
       </c>
       <c r="J21">
-        <v>8.518541733544049</v>
+        <v>8.130595068837883</v>
       </c>
       <c r="K21">
-        <v>15.87495076134069</v>
+        <v>14.72162252624748</v>
       </c>
       <c r="L21">
-        <v>6.728355344201507</v>
+        <v>12.01930948070325</v>
       </c>
       <c r="M21">
-        <v>30.73787385899208</v>
+        <v>10.03549394661052</v>
       </c>
       <c r="N21">
-        <v>6.570403811373573</v>
+        <v>6.575268751578816</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>30.72538201106052</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>6.786366685081589</v>
       </c>
       <c r="Q21">
-        <v>13.72849800606589</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>12.88758144202003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>11.92503611276876</v>
+        <v>10.6958493068404</v>
       </c>
       <c r="D22">
-        <v>9.191301202052621</v>
+        <v>9.375618550957338</v>
       </c>
       <c r="E22">
-        <v>11.67959039663641</v>
+        <v>11.48011277436822</v>
       </c>
       <c r="F22">
-        <v>21.0070999987571</v>
+        <v>19.50569163905461</v>
       </c>
       <c r="G22">
-        <v>20.9826058160478</v>
+        <v>21.79309420901366</v>
       </c>
       <c r="H22">
-        <v>2.043858779703345</v>
+        <v>2.010240444748878</v>
       </c>
       <c r="I22">
-        <v>3.183626585550239</v>
+        <v>3.16500440994025</v>
       </c>
       <c r="J22">
-        <v>8.462994640983776</v>
+        <v>7.813172838142853</v>
       </c>
       <c r="K22">
-        <v>15.95995329820559</v>
+        <v>14.63513038281623</v>
       </c>
       <c r="L22">
-        <v>6.798206261517119</v>
+        <v>11.86461732384201</v>
       </c>
       <c r="M22">
-        <v>31.81236249416105</v>
+        <v>10.13756902863693</v>
       </c>
       <c r="N22">
-        <v>6.639403455496357</v>
+        <v>6.633208528315408</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>31.79287884647752</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>6.856699184871518</v>
       </c>
       <c r="Q22">
-        <v>13.68976257314298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>12.67455183004023</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>11.76798399367183</v>
+        <v>10.52929445148398</v>
       </c>
       <c r="D23">
-        <v>9.060320244919266</v>
+        <v>9.210567683805456</v>
       </c>
       <c r="E23">
-        <v>11.54836696465919</v>
+        <v>11.34328838561669</v>
       </c>
       <c r="F23">
-        <v>20.92896978475597</v>
+        <v>19.58742337182797</v>
       </c>
       <c r="G23">
-        <v>20.93872635937789</v>
+        <v>20.98823967758339</v>
       </c>
       <c r="H23">
-        <v>1.958377257821341</v>
+        <v>1.934987215128544</v>
       </c>
       <c r="I23">
-        <v>3.110236519776738</v>
+        <v>3.102776282040062</v>
       </c>
       <c r="J23">
-        <v>8.498337603750814</v>
+        <v>8.016078894328801</v>
       </c>
       <c r="K23">
-        <v>15.93679509670587</v>
+        <v>14.71992138015025</v>
       </c>
       <c r="L23">
-        <v>6.764205637916144</v>
+        <v>11.97266798406013</v>
       </c>
       <c r="M23">
-        <v>31.24377107450101</v>
+        <v>10.11554883233588</v>
       </c>
       <c r="N23">
-        <v>6.598480535696524</v>
+        <v>6.606001000600672</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>31.22833034271288</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>6.815345207978289</v>
       </c>
       <c r="Q23">
-        <v>13.72510698169234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>12.82223247361936</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.09820545998573</v>
+        <v>9.8773176443592</v>
       </c>
       <c r="D24">
-        <v>8.550241345370337</v>
+        <v>8.612697523377767</v>
       </c>
       <c r="E24">
-        <v>11.02832332249284</v>
+        <v>10.82061604674837</v>
       </c>
       <c r="F24">
-        <v>20.61959940681906</v>
+        <v>19.71576762245255</v>
       </c>
       <c r="G24">
-        <v>20.76247446088355</v>
+        <v>19.06662564817287</v>
       </c>
       <c r="H24">
-        <v>1.626072653677958</v>
+        <v>1.638873541425843</v>
       </c>
       <c r="I24">
-        <v>2.832898809038578</v>
+        <v>2.86773507127086</v>
       </c>
       <c r="J24">
-        <v>8.631227202142991</v>
+        <v>8.736233986190465</v>
       </c>
       <c r="K24">
-        <v>15.82667104797071</v>
+        <v>14.91269211484362</v>
       </c>
       <c r="L24">
-        <v>6.627808640040021</v>
+        <v>12.30149539886109</v>
       </c>
       <c r="M24">
-        <v>28.99055090729431</v>
+        <v>9.938903876238253</v>
       </c>
       <c r="N24">
-        <v>6.449357571078199</v>
+        <v>6.492528669088382</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>28.98905606976105</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>6.663243693382524</v>
       </c>
       <c r="Q24">
-        <v>13.8566046341743</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>13.2549048844253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.31976156355753</v>
+        <v>9.219883719930314</v>
       </c>
       <c r="D25">
-        <v>7.966659685625799</v>
+        <v>8.017882011060115</v>
       </c>
       <c r="E25">
-        <v>10.43835693799227</v>
+        <v>10.26170381578944</v>
       </c>
       <c r="F25">
-        <v>20.33770062201802</v>
+        <v>19.58419020045337</v>
       </c>
       <c r="G25">
-        <v>20.67745583116667</v>
+        <v>19.06323786950334</v>
       </c>
       <c r="H25">
-        <v>1.876345857589136</v>
+        <v>1.831974069847702</v>
       </c>
       <c r="I25">
-        <v>2.523664473405568</v>
+        <v>2.596826465025201</v>
       </c>
       <c r="J25">
-        <v>8.792509586971935</v>
+        <v>8.924603671524054</v>
       </c>
       <c r="K25">
-        <v>15.73831348424904</v>
+        <v>14.94545055641604</v>
       </c>
       <c r="L25">
-        <v>6.475539442021648</v>
+        <v>12.53031177498504</v>
       </c>
       <c r="M25">
-        <v>26.34642303933534</v>
+        <v>9.652870391473549</v>
       </c>
       <c r="N25">
-        <v>6.286957579088359</v>
+        <v>6.357536400097392</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>26.35574033625128</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.494313886914401</v>
       </c>
       <c r="Q25">
-        <v>14.04405681414534</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.53469606902539</v>
       </c>
     </row>
   </sheetData>
